--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2-350 (Аквадив 0.35 л.)/от 26.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2-350 (Аквадив 0.35 л.)/от 26.09.2019.xlsx
@@ -9,39 +9,41 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
     <sheet name="Акт приемки" sheetId="14" r:id="rId2"/>
-    <sheet name="Ресурс" sheetId="13" r:id="rId3"/>
-    <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
-    <sheet name="Чист.  поддон" sheetId="4" r:id="rId5"/>
-    <sheet name="Черн. форма" sheetId="3" r:id="rId6"/>
-    <sheet name="Черн. поддон" sheetId="1" r:id="rId7"/>
-    <sheet name="Горл. кольцо" sheetId="9" r:id="rId8"/>
-    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId9"/>
-    <sheet name="Плунжер" sheetId="10" r:id="rId10"/>
-    <sheet name="Втулка" sheetId="11" r:id="rId11"/>
-    <sheet name="Дут. головка" sheetId="6" r:id="rId12"/>
-    <sheet name="Воронка" sheetId="12" r:id="rId13"/>
+    <sheet name="Акт приемки (гр. вставка)" sheetId="16" r:id="rId3"/>
+    <sheet name="Ресурс" sheetId="13" r:id="rId4"/>
+    <sheet name="Чист. форма" sheetId="8" r:id="rId5"/>
+    <sheet name="Чист.  поддон" sheetId="4" r:id="rId6"/>
+    <sheet name="Черн. форма" sheetId="3" r:id="rId7"/>
+    <sheet name="Черн. поддон" sheetId="1" r:id="rId8"/>
+    <sheet name="Горл. кольцо" sheetId="9" r:id="rId9"/>
+    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId10"/>
+    <sheet name="Плунжер" sheetId="10" r:id="rId11"/>
+    <sheet name="Втулка" sheetId="11" r:id="rId12"/>
+    <sheet name="Дут. головка" sheetId="6" r:id="rId13"/>
+    <sheet name="Воронка" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Ресурс!$A$1:$J$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки (гр. вставка)'!$A$1:$J$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Горл. кольцо'!$A$1:$S$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Плунжер!$A$1:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Ресурс!$A$1:$J$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Черн. поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. форма'!$A$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Чист.  поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="125">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -199,9 +201,6 @@
     <t>Сопряжение с горловым кольцом</t>
   </si>
   <si>
-    <t>Финишное кольцо</t>
-  </si>
-  <si>
     <t>Плунжер</t>
   </si>
   <si>
@@ -286,34 +285,19 @@
     <t>Формокомплект соответствует требованиям КД и готов к эксплуатации.</t>
   </si>
   <si>
-    <t>В.П. Гринь</t>
-  </si>
-  <si>
-    <t>Унитарного предприятия "БелСтеклоПром"</t>
-  </si>
-  <si>
     <t>приемки формокомплекта для производства бутылки:</t>
   </si>
   <si>
     <t>начальник участка ремонта форм:</t>
   </si>
   <si>
-    <t>А.Д. Гавриленко;</t>
-  </si>
-  <si>
     <t xml:space="preserve">составила настоящий акт в том, что указанный формокомплект прибывший </t>
-  </si>
-  <si>
-    <t>Х-К-700</t>
   </si>
   <si>
     <t>Присваивает формокомплекту  Х-К-700-33 (GRAPE), приобретенному в собственность Унитарного предприятия "Белстеклопром", согласно договора №101016 от 10.10.2016 г., ресурс в количестве 22 400 000 капель стекломассы, прошедших через чистовые формы формокомплекта, после чего считать формокомплект 100% изношенным.</t>
   </si>
   <si>
     <t>имеет в наличии следующие детали:</t>
-  </si>
-  <si>
-    <t>Х-КПНн-500-34 (ALIVARIA 1864)</t>
   </si>
   <si>
     <t>Полная высота 67,4 мм</t>
@@ -334,16 +318,7 @@
     <t>токарь участка ремонта форм:</t>
   </si>
   <si>
-    <t>И.В. Шуманский</t>
-  </si>
-  <si>
     <t>С.В. Гельфер</t>
-  </si>
-  <si>
-    <t>Комиссия созданная приказом №97 от 15.05.2019 г. в составе:</t>
-  </si>
-  <si>
-    <t>начальник производственного участка:</t>
   </si>
   <si>
     <t>Текстовый формат ячейки?   </t>
@@ -398,6 +373,51 @@
   </si>
   <si>
     <t>нет</t>
+  </si>
+  <si>
+    <t>Дата приемки</t>
+  </si>
+  <si>
+    <t>Состав комиссии</t>
+  </si>
+  <si>
+    <t>Комиссия созданная приказом №72 от 20.09.2019 г. в составе:</t>
+  </si>
+  <si>
+    <t>начальник производства</t>
+  </si>
+  <si>
+    <t>начальник участка ремонта форм</t>
+  </si>
+  <si>
+    <t>Я.В. Карчмит</t>
+  </si>
+  <si>
+    <t>Д.Е. Серков</t>
+  </si>
+  <si>
+    <t>А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Зам. дирекотора по ПиТ</t>
+  </si>
+  <si>
+    <t>И.М. Александрович</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2-350</t>
+  </si>
+  <si>
+    <t>Маркировка деталей</t>
+  </si>
+  <si>
+    <t>ООО "Стеклозавод "Ведатранзит"</t>
+  </si>
+  <si>
+    <t>Графитовые вставки</t>
+  </si>
+  <si>
+    <t>приемки деталей формокомплекта для производства бутылки:</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1848,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -2794,16 +2814,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2981,6 +2992,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3022,6 +3052,12 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3031,48 +3067,21 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3081,78 +3090,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3204,73 +3141,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3294,6 +3234,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3336,24 +3345,20 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5610,10 +5615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5623,196 +5628,254 @@
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="392" t="s">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="396" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="G1" s="380" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="397" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="398"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="399"/>
+      <c r="G2" s="379" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="379" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="401" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="402"/>
+      <c r="C4" s="402"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="403" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="404"/>
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="405"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="396" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="400"/>
+      <c r="C7" s="400"/>
+      <c r="D7" s="400"/>
+      <c r="E7" s="400"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="406"/>
+      <c r="B8" s="407"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="407"/>
+      <c r="E8" s="408"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="396" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="396"/>
+      <c r="C10" s="381"/>
+      <c r="D10" s="390" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="381"/>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="394"/>
+      <c r="B11" s="395"/>
+      <c r="D11" s="389">
+        <v>43734</v>
+      </c>
+      <c r="F11" s="409" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="409"/>
+      <c r="H11" s="409"/>
+      <c r="I11" s="409"/>
+      <c r="J11" s="410" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="410"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="409" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="409"/>
+      <c r="H12" s="409"/>
+      <c r="I12" s="409"/>
+      <c r="J12" s="410" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="410"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="383" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="G1" s="383" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="393" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="395"/>
-      <c r="G2" s="382" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="382" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="397" t="s">
+      <c r="C13" s="382"/>
+      <c r="F13" s="409" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="409"/>
+      <c r="H13" s="409"/>
+      <c r="I13" s="409"/>
+      <c r="J13" s="410" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="410"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="385" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="386">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="385" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="386">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="385" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="386">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="386">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="385" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="386">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="399" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="400"/>
-      <c r="C5" s="400"/>
-      <c r="D5" s="400"/>
-      <c r="E5" s="401"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="392" t="s">
+      <c r="B19" s="386">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="385" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="386">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="385" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="386">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
-      <c r="D7" s="396"/>
-      <c r="E7" s="396"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="402"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="404"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="392" t="s">
+      <c r="B22" s="386">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="385" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="386">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="385" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="386" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="385" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="392"/>
-      <c r="C10" s="384"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="384"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="390"/>
-      <c r="B11" s="391"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="386" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="387" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="385"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="388" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="389">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="388" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="389">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="388" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="389">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="388" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="389">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="388" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="389">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="388" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="389">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="388" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="389">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="388" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="389">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="389">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="388" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="389">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="388" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="389" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="388" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="389"/>
+      <c r="B25" s="392" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="516" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="517" t="s">
-        <v>118</v>
+      <c r="A26" s="387" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="388" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="391" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="386" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -5828,6 +5891,546 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="8" max="18" width="9" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="471"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="480" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="486" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="487"/>
+      <c r="K2" s="490">
+        <f>Данные!B19</f>
+        <v>60</v>
+      </c>
+      <c r="L2" s="491"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="501"/>
+      <c r="Q2" s="501"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="474"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="483" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="479"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="425" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="464"/>
+      <c r="D5" s="403" t="str">
+        <f>Данные!$A5</f>
+        <v>PCI</v>
+      </c>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="466"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="405"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="425" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="464"/>
+      <c r="D6" s="397" t="str">
+        <f>Данные!$A2</f>
+        <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
+      </c>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="405"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="70"/>
+    </row>
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="432" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="468"/>
+      <c r="D7" s="406">
+        <f>Данные!$A8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="469" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="468"/>
+      <c r="K7" s="394">
+        <f>Данные!$A11</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="395"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="70"/>
+    </row>
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="86"/>
+    </row>
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="87"/>
+      <c r="B9" s="256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="259" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="260" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="134"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+    </row>
+    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A10" s="78"/>
+      <c r="B10" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="98">
+        <v>24.7</v>
+      </c>
+      <c r="D10" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="98">
+        <v>0</v>
+      </c>
+      <c r="F10" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="86"/>
+    </row>
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="98">
+        <v>19.95</v>
+      </c>
+      <c r="D11" s="98">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="98">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="86"/>
+    </row>
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="331">
+        <v>28.6</v>
+      </c>
+      <c r="D12" s="98">
+        <v>0</v>
+      </c>
+      <c r="E12" s="98">
+        <v>-0.03</v>
+      </c>
+      <c r="F12" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="132"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="86"/>
+    </row>
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="78"/>
+      <c r="B13" s="131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="331">
+        <v>62</v>
+      </c>
+      <c r="D13" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="98">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="86"/>
+    </row>
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="78"/>
+      <c r="B14" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="98">
+        <v>12.9</v>
+      </c>
+      <c r="D14" s="98">
+        <v>0</v>
+      </c>
+      <c r="E14" s="98">
+        <v>-0.03</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="86"/>
+    </row>
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="331">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="98">
+        <v>0</v>
+      </c>
+      <c r="E15" s="98">
+        <v>-0.02</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="86"/>
+    </row>
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="78"/>
+      <c r="B16" s="422" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="423"/>
+      <c r="D16" s="423"/>
+      <c r="E16" s="424"/>
+      <c r="F16" s="261" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="200" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="86"/>
+    </row>
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="112"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="116"/>
+    </row>
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H10:R15">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="notBetween">
+      <formula>$C10+$D10</formula>
+      <formula>$C10+$E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;C&amp;R</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -5874,47 +6477,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="467"/>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="476" t="s">
+      <c r="B2" s="471"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="480" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="482" t="s">
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="483"/>
-      <c r="K2" s="486">
+      <c r="J2" s="487"/>
+      <c r="K2" s="490">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="487"/>
+      <c r="L2" s="491"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
+      <c r="P2" s="502"/>
+      <c r="Q2" s="502"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="479" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="481"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="489"/>
+      <c r="B3" s="474"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="483" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="493"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -5925,9 +6528,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="475"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="479"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -5946,22 +6549,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="490"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="464"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="466"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -5972,22 +6575,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="464"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="492"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -5998,27 +6601,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="494"/>
-      <c r="D7" s="402">
+      <c r="C7" s="468"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="495" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="390">
+      <c r="J7" s="468"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -6074,11 +6677,11 @@
       <c r="K9" s="190"/>
       <c r="L9" s="190"/>
       <c r="M9" s="203"/>
-      <c r="N9" s="356"/>
-      <c r="O9" s="356"/>
-      <c r="P9" s="357"/>
-      <c r="Q9" s="356"/>
-      <c r="R9" s="358"/>
+      <c r="N9" s="353"/>
+      <c r="O9" s="353"/>
+      <c r="P9" s="354"/>
+      <c r="Q9" s="353"/>
+      <c r="R9" s="355"/>
       <c r="S9" s="204"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6107,13 +6710,13 @@
       <c r="K10" s="192"/>
       <c r="L10" s="192"/>
       <c r="M10" s="192"/>
-      <c r="N10" s="359" t="s">
+      <c r="N10" s="356" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="359"/>
-      <c r="P10" s="359"/>
-      <c r="Q10" s="359"/>
-      <c r="R10" s="360"/>
+      <c r="O10" s="356"/>
+      <c r="P10" s="356"/>
+      <c r="Q10" s="356"/>
+      <c r="R10" s="357"/>
       <c r="S10" s="188"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6142,11 +6745,11 @@
       <c r="K11" s="194"/>
       <c r="L11" s="194"/>
       <c r="M11" s="194"/>
-      <c r="N11" s="361"/>
-      <c r="O11" s="361"/>
-      <c r="P11" s="361"/>
-      <c r="Q11" s="361"/>
-      <c r="R11" s="362"/>
+      <c r="N11" s="358"/>
+      <c r="O11" s="358"/>
+      <c r="P11" s="358"/>
+      <c r="Q11" s="358"/>
+      <c r="R11" s="359"/>
       <c r="S11" s="188"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6757,7 @@
       <c r="B12" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="371">
+      <c r="C12" s="368">
         <v>45.2</v>
       </c>
       <c r="D12" s="194">
@@ -6175,11 +6778,11 @@
       <c r="K12" s="194"/>
       <c r="L12" s="194"/>
       <c r="M12" s="194"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="361"/>
-      <c r="P12" s="361"/>
-      <c r="Q12" s="361"/>
-      <c r="R12" s="362"/>
+      <c r="N12" s="358"/>
+      <c r="O12" s="358"/>
+      <c r="P12" s="358"/>
+      <c r="Q12" s="358"/>
+      <c r="R12" s="359"/>
       <c r="S12" s="188"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6187,7 +6790,7 @@
       <c r="B13" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="371">
+      <c r="C13" s="368">
         <v>37</v>
       </c>
       <c r="D13" s="194">
@@ -6208,11 +6811,11 @@
       <c r="K13" s="194"/>
       <c r="L13" s="194"/>
       <c r="M13" s="194"/>
-      <c r="N13" s="361"/>
-      <c r="O13" s="361"/>
-      <c r="P13" s="361"/>
-      <c r="Q13" s="361"/>
-      <c r="R13" s="362"/>
+      <c r="N13" s="358"/>
+      <c r="O13" s="358"/>
+      <c r="P13" s="358"/>
+      <c r="Q13" s="358"/>
+      <c r="R13" s="359"/>
       <c r="S13" s="188"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6220,7 +6823,7 @@
       <c r="B14" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="371">
+      <c r="C14" s="368">
         <v>28.5</v>
       </c>
       <c r="D14" s="194">
@@ -6241,11 +6844,11 @@
       <c r="K14" s="194"/>
       <c r="L14" s="194"/>
       <c r="M14" s="194"/>
-      <c r="N14" s="361"/>
-      <c r="O14" s="361"/>
-      <c r="P14" s="361"/>
-      <c r="Q14" s="361"/>
-      <c r="R14" s="362"/>
+      <c r="N14" s="358"/>
+      <c r="O14" s="358"/>
+      <c r="P14" s="358"/>
+      <c r="Q14" s="358"/>
+      <c r="R14" s="359"/>
       <c r="S14" s="188"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6253,7 +6856,7 @@
       <c r="B15" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="371">
+      <c r="C15" s="368">
         <v>9.5</v>
       </c>
       <c r="D15" s="194">
@@ -6274,11 +6877,11 @@
       <c r="K15" s="194"/>
       <c r="L15" s="194"/>
       <c r="M15" s="194"/>
-      <c r="N15" s="361"/>
-      <c r="O15" s="361"/>
-      <c r="P15" s="361"/>
-      <c r="Q15" s="361"/>
-      <c r="R15" s="362"/>
+      <c r="N15" s="358"/>
+      <c r="O15" s="358"/>
+      <c r="P15" s="358"/>
+      <c r="Q15" s="358"/>
+      <c r="R15" s="359"/>
       <c r="S15" s="188"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6286,7 +6889,7 @@
       <c r="B16" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="371">
+      <c r="C16" s="368">
         <v>23.8</v>
       </c>
       <c r="D16" s="194">
@@ -6307,11 +6910,11 @@
       <c r="K16" s="194"/>
       <c r="L16" s="194"/>
       <c r="M16" s="194"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="361"/>
-      <c r="P16" s="361"/>
-      <c r="Q16" s="361"/>
-      <c r="R16" s="362"/>
+      <c r="N16" s="358"/>
+      <c r="O16" s="358"/>
+      <c r="P16" s="358"/>
+      <c r="Q16" s="358"/>
+      <c r="R16" s="359"/>
       <c r="S16" s="188"/>
     </row>
     <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -6332,7 +6935,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="194"/>
       <c r="I17" s="194"/>
@@ -6340,11 +6943,11 @@
       <c r="K17" s="194"/>
       <c r="L17" s="194"/>
       <c r="M17" s="194"/>
-      <c r="N17" s="361"/>
-      <c r="O17" s="361"/>
-      <c r="P17" s="361"/>
-      <c r="Q17" s="361"/>
-      <c r="R17" s="362"/>
+      <c r="N17" s="358"/>
+      <c r="O17" s="358"/>
+      <c r="P17" s="358"/>
+      <c r="Q17" s="358"/>
+      <c r="R17" s="359"/>
       <c r="S17" s="188"/>
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6352,7 +6955,7 @@
       <c r="B18" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="371">
+      <c r="C18" s="368">
         <v>28.5</v>
       </c>
       <c r="D18" s="194">
@@ -6373,11 +6976,11 @@
       <c r="K18" s="194"/>
       <c r="L18" s="194"/>
       <c r="M18" s="194"/>
-      <c r="N18" s="361"/>
-      <c r="O18" s="361"/>
-      <c r="P18" s="361"/>
-      <c r="Q18" s="361"/>
-      <c r="R18" s="362"/>
+      <c r="N18" s="358"/>
+      <c r="O18" s="358"/>
+      <c r="P18" s="358"/>
+      <c r="Q18" s="358"/>
+      <c r="R18" s="359"/>
       <c r="S18" s="188"/>
     </row>
     <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6408,7 +7011,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -6417,6 +7019,7 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
@@ -6440,7 +7043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -6487,47 +7090,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="467"/>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="476" t="s">
+      <c r="B2" s="471"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="480" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="482" t="s">
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="483"/>
-      <c r="K2" s="486">
+      <c r="J2" s="487"/>
+      <c r="K2" s="490">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="487"/>
+      <c r="L2" s="491"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="509"/>
-      <c r="Q2" s="509"/>
+      <c r="P2" s="506"/>
+      <c r="Q2" s="506"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="479" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="481"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="489"/>
+      <c r="B3" s="474"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="483" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="493"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -6538,9 +7141,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="475"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="479"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6559,22 +7162,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="490"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="464"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="466"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -6585,22 +7188,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="464"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="492"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -6611,27 +7214,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="494"/>
-      <c r="D7" s="402">
+      <c r="C7" s="468"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="495" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="390">
+      <c r="J7" s="468"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -6699,7 +7302,7 @@
       <c r="B10" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="374">
+      <c r="C10" s="371">
         <v>58.6</v>
       </c>
       <c r="D10" s="233">
@@ -6732,7 +7335,7 @@
       <c r="B11" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="375">
+      <c r="C11" s="372">
         <v>45.2</v>
       </c>
       <c r="D11" s="238">
@@ -6765,7 +7368,7 @@
       <c r="B12" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="375">
+      <c r="C12" s="372">
         <v>28.6</v>
       </c>
       <c r="D12" s="238">
@@ -6798,7 +7401,7 @@
       <c r="B13" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="375">
+      <c r="C13" s="372">
         <v>45.3</v>
       </c>
       <c r="D13" s="238">
@@ -6831,7 +7434,7 @@
       <c r="B14" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="375">
+      <c r="C14" s="372">
         <v>70</v>
       </c>
       <c r="D14" s="238">
@@ -6864,7 +7467,7 @@
       <c r="B15" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="375">
+      <c r="C15" s="372">
         <v>9.1</v>
       </c>
       <c r="D15" s="238">
@@ -6897,7 +7500,7 @@
       <c r="B16" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="375">
+      <c r="C16" s="372">
         <v>46</v>
       </c>
       <c r="D16" s="238">
@@ -6930,7 +7533,7 @@
       <c r="B17" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="375">
+      <c r="C17" s="372">
         <v>57.9</v>
       </c>
       <c r="D17" s="238">
@@ -6960,12 +7563,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="506" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="507"/>
-      <c r="D18" s="507"/>
-      <c r="E18" s="508"/>
+      <c r="B18" s="503" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="504"/>
+      <c r="D18" s="504"/>
+      <c r="E18" s="505"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -7009,11 +7612,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
@@ -7022,6 +7620,11 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -7066,7 +7669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -7110,47 +7713,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="467"/>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="476" t="s">
+      <c r="B2" s="471"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="480" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="482" t="s">
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="483"/>
-      <c r="K2" s="486" t="str">
+      <c r="J2" s="487"/>
+      <c r="K2" s="490" t="str">
         <f>Данные!B26</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="487"/>
+      <c r="L2" s="491"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="510"/>
-      <c r="Q2" s="510"/>
+      <c r="P2" s="507"/>
+      <c r="Q2" s="507"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="479" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="481"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="489"/>
+      <c r="B3" s="474"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="483" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="493"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -7161,9 +7764,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="475"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="479"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7182,22 +7785,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="490"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="464"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="466"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -7208,22 +7811,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="464"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="492"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -7234,27 +7837,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="494"/>
-      <c r="D7" s="402">
+      <c r="C7" s="468"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="495" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="390">
+      <c r="J7" s="468"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -7322,7 +7925,7 @@
       <c r="B10" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="377">
+      <c r="C10" s="374">
         <v>35</v>
       </c>
       <c r="D10" s="157" t="s">
@@ -7355,7 +7958,7 @@
       <c r="B11" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="377">
+      <c r="C11" s="374">
         <v>14.3</v>
       </c>
       <c r="D11" s="157" t="s">
@@ -7388,7 +7991,7 @@
       <c r="B12" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="376">
+      <c r="C12" s="373">
         <v>60</v>
       </c>
       <c r="D12" s="157" t="s">
@@ -7421,7 +8024,7 @@
       <c r="B13" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="376">
+      <c r="C13" s="373">
         <v>60</v>
       </c>
       <c r="D13" s="157">
@@ -7454,7 +8057,7 @@
       <c r="B14" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="376">
+      <c r="C14" s="373">
         <v>12.7</v>
       </c>
       <c r="D14" s="157">
@@ -7487,7 +8090,7 @@
       <c r="B15" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="376">
+      <c r="C15" s="373">
         <v>50.6</v>
       </c>
       <c r="D15" s="157">
@@ -7520,7 +8123,7 @@
       <c r="B16" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="376">
+      <c r="C16" s="373">
         <v>62</v>
       </c>
       <c r="D16" s="157">
@@ -7639,7 +8242,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -7648,6 +8250,7 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
@@ -7671,11 +8274,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7718,47 +8321,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="467"/>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="476" t="s">
+      <c r="B2" s="471"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="480" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="482" t="s">
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="483"/>
-      <c r="K2" s="512">
+      <c r="J2" s="487"/>
+      <c r="K2" s="508">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="513"/>
+      <c r="L2" s="509"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="511"/>
-      <c r="Q2" s="511"/>
+      <c r="P2" s="512"/>
+      <c r="Q2" s="512"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="479" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="481"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="514"/>
-      <c r="L3" s="515"/>
+      <c r="B3" s="474"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="483" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="510"/>
+      <c r="L3" s="511"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -7769,9 +8372,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="475"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="479"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7790,22 +8393,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="490"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="464"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="466"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -7816,22 +8419,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="464"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="492"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -7842,27 +8445,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="494"/>
-      <c r="D7" s="402">
+      <c r="C7" s="468"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="495" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="390">
+      <c r="J7" s="468"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -7915,14 +8518,14 @@
       <c r="H9" s="286"/>
       <c r="I9" s="286"/>
       <c r="J9" s="286"/>
-      <c r="K9" s="363"/>
-      <c r="L9" s="363"/>
-      <c r="M9" s="363"/>
-      <c r="N9" s="363"/>
-      <c r="O9" s="363"/>
-      <c r="P9" s="363"/>
-      <c r="Q9" s="363"/>
-      <c r="R9" s="364"/>
+      <c r="K9" s="360"/>
+      <c r="L9" s="360"/>
+      <c r="M9" s="360"/>
+      <c r="N9" s="360"/>
+      <c r="O9" s="360"/>
+      <c r="P9" s="360"/>
+      <c r="Q9" s="360"/>
+      <c r="R9" s="361"/>
       <c r="S9" s="287"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7948,14 +8551,14 @@
       <c r="H10" s="290"/>
       <c r="I10" s="289"/>
       <c r="J10" s="289"/>
-      <c r="K10" s="365"/>
-      <c r="L10" s="365"/>
-      <c r="M10" s="365"/>
-      <c r="N10" s="365"/>
-      <c r="O10" s="365"/>
-      <c r="P10" s="365"/>
-      <c r="Q10" s="365"/>
-      <c r="R10" s="366"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="362"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
+      <c r="Q10" s="362"/>
+      <c r="R10" s="363"/>
       <c r="S10" s="284"/>
     </row>
     <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -7963,7 +8566,7 @@
       <c r="B11" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="378">
+      <c r="C11" s="375">
         <v>65.099999999999994</v>
       </c>
       <c r="D11" s="293">
@@ -7981,14 +8584,14 @@
       <c r="H11" s="294"/>
       <c r="I11" s="291"/>
       <c r="J11" s="291"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="365"/>
-      <c r="M11" s="365"/>
-      <c r="N11" s="365"/>
-      <c r="O11" s="365"/>
-      <c r="P11" s="365"/>
-      <c r="Q11" s="365"/>
-      <c r="R11" s="367"/>
+      <c r="K11" s="362"/>
+      <c r="L11" s="362"/>
+      <c r="M11" s="362"/>
+      <c r="N11" s="362"/>
+      <c r="O11" s="362"/>
+      <c r="P11" s="362"/>
+      <c r="Q11" s="362"/>
+      <c r="R11" s="364"/>
       <c r="S11" s="284"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7996,7 +8599,7 @@
       <c r="B12" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="372">
+      <c r="C12" s="369">
         <v>89</v>
       </c>
       <c r="D12" s="293">
@@ -8014,14 +8617,14 @@
       <c r="H12" s="295"/>
       <c r="I12" s="293"/>
       <c r="J12" s="293"/>
-      <c r="K12" s="368"/>
-      <c r="L12" s="368"/>
-      <c r="M12" s="368"/>
-      <c r="N12" s="368"/>
-      <c r="O12" s="368"/>
-      <c r="P12" s="368"/>
-      <c r="Q12" s="368"/>
-      <c r="R12" s="369"/>
+      <c r="K12" s="365"/>
+      <c r="L12" s="365"/>
+      <c r="M12" s="365"/>
+      <c r="N12" s="365"/>
+      <c r="O12" s="365"/>
+      <c r="P12" s="365"/>
+      <c r="Q12" s="365"/>
+      <c r="R12" s="366"/>
       <c r="S12" s="284"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,7 +8632,7 @@
       <c r="B13" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="372">
+      <c r="C13" s="369">
         <v>12</v>
       </c>
       <c r="D13" s="293">
@@ -8047,14 +8650,14 @@
       <c r="H13" s="295"/>
       <c r="I13" s="293"/>
       <c r="J13" s="293"/>
-      <c r="K13" s="368"/>
-      <c r="L13" s="368"/>
-      <c r="M13" s="368"/>
-      <c r="N13" s="368"/>
-      <c r="O13" s="368"/>
-      <c r="P13" s="368"/>
-      <c r="Q13" s="368"/>
-      <c r="R13" s="369"/>
+      <c r="K13" s="365"/>
+      <c r="L13" s="365"/>
+      <c r="M13" s="365"/>
+      <c r="N13" s="365"/>
+      <c r="O13" s="365"/>
+      <c r="P13" s="365"/>
+      <c r="Q13" s="365"/>
+      <c r="R13" s="366"/>
       <c r="S13" s="284"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8062,7 +8665,7 @@
       <c r="B14" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="378">
+      <c r="C14" s="375">
         <v>52</v>
       </c>
       <c r="D14" s="293">
@@ -8080,14 +8683,14 @@
       <c r="H14" s="295"/>
       <c r="I14" s="293"/>
       <c r="J14" s="293"/>
-      <c r="K14" s="368"/>
-      <c r="L14" s="368"/>
-      <c r="M14" s="368"/>
-      <c r="N14" s="368"/>
-      <c r="O14" s="368"/>
-      <c r="P14" s="368"/>
-      <c r="Q14" s="368"/>
-      <c r="R14" s="369"/>
+      <c r="K14" s="365"/>
+      <c r="L14" s="365"/>
+      <c r="M14" s="365"/>
+      <c r="N14" s="365"/>
+      <c r="O14" s="365"/>
+      <c r="P14" s="365"/>
+      <c r="Q14" s="365"/>
+      <c r="R14" s="366"/>
       <c r="S14" s="284"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8101,14 +8704,14 @@
       <c r="H15" s="299"/>
       <c r="I15" s="299"/>
       <c r="J15" s="299"/>
-      <c r="K15" s="370"/>
-      <c r="L15" s="370"/>
-      <c r="M15" s="370"/>
-      <c r="N15" s="370"/>
-      <c r="O15" s="370"/>
-      <c r="P15" s="370"/>
-      <c r="Q15" s="370"/>
-      <c r="R15" s="351"/>
+      <c r="K15" s="367"/>
+      <c r="L15" s="367"/>
+      <c r="M15" s="367"/>
+      <c r="N15" s="367"/>
+      <c r="O15" s="367"/>
+      <c r="P15" s="367"/>
+      <c r="Q15" s="367"/>
+      <c r="R15" s="348"/>
       <c r="S15" s="284"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8135,7 +8738,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -8153,6 +8755,7 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8181,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8194,107 +8797,103 @@
     <col min="10" max="16384" width="9.109375" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="F2" s="328" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-    </row>
-    <row r="3" spans="1:11" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="F3" s="328" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-    </row>
-    <row r="4" spans="1:11" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="F4" s="328" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-    </row>
-    <row r="5" spans="1:11" s="379" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="328" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="329"/>
-      <c r="J6" s="329"/>
-    </row>
-    <row r="7" spans="1:11" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="H7" s="329"/>
-      <c r="I7" s="329"/>
-      <c r="J7" s="329"/>
-    </row>
-    <row r="8" spans="1:11" s="379" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="F8" s="312" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="312"/>
-      <c r="H8" s="328" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="329"/>
-      <c r="J8" s="329"/>
+    <row r="2" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G2" s="325" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+    </row>
+    <row r="3" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G3" s="325" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+    </row>
+    <row r="4" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G4" s="325" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+    </row>
+    <row r="5" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G6" s="377"/>
+      <c r="H6" s="325" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
+    </row>
+    <row r="7" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
+    </row>
+    <row r="8" spans="1:11" s="376" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="G8" s="312" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="325" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="326"/>
+      <c r="J8" s="326"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="421" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="421"/>
-      <c r="C11" s="421"/>
-      <c r="D11" s="421"/>
-      <c r="E11" s="421"/>
-      <c r="F11" s="421"/>
-      <c r="G11" s="421"/>
-      <c r="H11" s="421"/>
-      <c r="I11" s="421"/>
-      <c r="J11" s="421"/>
+      <c r="A11" s="415" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="415"/>
+      <c r="C11" s="415"/>
+      <c r="D11" s="415"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="415"/>
+      <c r="H11" s="415"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="420" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="420"/>
-      <c r="C12" s="420"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="420"/>
-      <c r="F12" s="420"/>
-      <c r="G12" s="420"/>
-      <c r="H12" s="420"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="420"/>
+      <c r="A12" s="414" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="414"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
+      <c r="F12" s="414"/>
+      <c r="G12" s="414"/>
+      <c r="H12" s="414"/>
+      <c r="I12" s="414"/>
+      <c r="J12" s="414"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="421" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="421"/>
-      <c r="C13" s="421"/>
-      <c r="D13" s="421"/>
-      <c r="E13" s="421"/>
-      <c r="F13" s="421"/>
-      <c r="G13" s="421"/>
-      <c r="H13" s="421"/>
-      <c r="I13" s="421"/>
-      <c r="J13" s="421"/>
+      <c r="A13" s="416" t="str">
+        <f>Данные!A2</f>
+        <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
+      </c>
+      <c r="B13" s="415"/>
+      <c r="C13" s="415"/>
+      <c r="D13" s="415"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="415"/>
+      <c r="H13" s="415"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="313"/>
       <c r="C15" s="313"/>
@@ -8303,14 +8902,15 @@
       <c r="F15" s="313"/>
       <c r="G15" s="314"/>
       <c r="H15" s="315">
-        <v>43420</v>
+        <f>Данные!D11</f>
+        <v>43734</v>
       </c>
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="313" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B16" s="313"/>
       <c r="C16" s="313"/>
@@ -8322,63 +8922,69 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="331" t="s">
+    <row r="17" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="328" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="332" t="s">
+      <c r="C17" s="329"/>
+      <c r="D17" s="330" t="str">
+        <f>Данные!F11</f>
+        <v>начальник производства</v>
+      </c>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="H17" s="329"/>
+      <c r="I17" s="329" t="str">
+        <f>Данные!J11</f>
+        <v>Я.В. Карчмит</v>
+      </c>
+      <c r="J17" s="314"/>
+    </row>
+    <row r="18" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="328" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="333" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
-      <c r="H17" s="332"/>
-      <c r="I17" s="332" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="314"/>
-    </row>
-    <row r="18" spans="1:10" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="331" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="332" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="333" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
-      <c r="G18" s="332"/>
-      <c r="I18" s="332" t="s">
-        <v>85</v>
+      <c r="C18" s="329"/>
+      <c r="D18" s="330" t="str">
+        <f>Данные!F12</f>
+        <v>начальник производственного участка</v>
+      </c>
+      <c r="E18" s="329"/>
+      <c r="F18" s="329"/>
+      <c r="G18" s="329"/>
+      <c r="I18" s="329" t="str">
+        <f>Данные!J12</f>
+        <v>Д.Е. Серков</v>
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="381" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="332"/>
-      <c r="B19" s="332"/>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="332"/>
-      <c r="I19" s="332" t="s">
-        <v>81</v>
+    <row r="19" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="329"/>
+      <c r="B19" s="329"/>
+      <c r="C19" s="329"/>
+      <c r="D19" s="329" t="str">
+        <f>Данные!F13</f>
+        <v>начальник участка ремонта форм</v>
+      </c>
+      <c r="E19" s="329"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="329"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329" t="str">
+        <f>Данные!J13</f>
+        <v>А.Д. Гавриленко</v>
       </c>
       <c r="J19" s="314"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="313" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B20" s="313"/>
       <c r="C20" s="313"/>
@@ -8389,13 +8995,13 @@
       <c r="H20" s="313"/>
       <c r="I20" s="315">
         <f>H15</f>
-        <v>43420</v>
+        <v>43734</v>
       </c>
       <c r="J20" s="314"/>
     </row>
-    <row r="21" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="313" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B21" s="313"/>
       <c r="C21" s="313"/>
@@ -8408,289 +9014,311 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="409" t="s">
+      <c r="A22" s="417" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="417" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="411" t="s">
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="411"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="411" t="s">
+      <c r="F22" s="417"/>
+      <c r="G22" s="418" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="411"/>
-      <c r="G22" s="413" t="s">
+      <c r="H22" s="417" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="411" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="411"/>
-      <c r="J22" s="415"/>
+      <c r="I22" s="417"/>
+      <c r="J22" s="417"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="410"/>
-      <c r="B23" s="412"/>
-      <c r="C23" s="412"/>
-      <c r="D23" s="412"/>
-      <c r="E23" s="412"/>
-      <c r="F23" s="412"/>
-      <c r="G23" s="414"/>
-      <c r="H23" s="412"/>
-      <c r="I23" s="412"/>
-      <c r="J23" s="416"/>
+      <c r="A23" s="417"/>
+      <c r="B23" s="417"/>
+      <c r="C23" s="417"/>
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="418"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="417"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="324">
+      <c r="A24" s="393">
         <v>1</v>
       </c>
-      <c r="B24" s="405" t="s">
+      <c r="B24" s="411" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="405"/>
-      <c r="D24" s="405"/>
-      <c r="E24" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="406"/>
-      <c r="G24" s="325">
-        <v>26</v>
-      </c>
-      <c r="H24" s="407"/>
-      <c r="I24" s="407"/>
-      <c r="J24" s="408"/>
+      <c r="C24" s="411"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F24" s="412"/>
+      <c r="G24" s="324">
+        <f>Данные!B14</f>
+        <v>24</v>
+      </c>
+      <c r="H24" s="413"/>
+      <c r="I24" s="413"/>
+      <c r="J24" s="413"/>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="324">
+      <c r="A25" s="393">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="405" t="s">
+      <c r="B25" s="411" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="405"/>
-      <c r="D25" s="405"/>
-      <c r="E25" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="406"/>
-      <c r="G25" s="325">
-        <v>26</v>
-      </c>
-      <c r="H25" s="407"/>
-      <c r="I25" s="407"/>
-      <c r="J25" s="408"/>
+      <c r="C25" s="411"/>
+      <c r="D25" s="411"/>
+      <c r="E25" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F25" s="412"/>
+      <c r="G25" s="324">
+        <f>Данные!B15</f>
+        <v>24</v>
+      </c>
+      <c r="H25" s="413"/>
+      <c r="I25" s="413"/>
+      <c r="J25" s="413"/>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="324">
+      <c r="A26" s="393">
         <f t="shared" ref="A26:A35" si="0">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="405" t="s">
+      <c r="B26" s="411" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="405"/>
-      <c r="D26" s="405"/>
-      <c r="E26" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="406"/>
-      <c r="G26" s="325">
-        <v>30</v>
-      </c>
-      <c r="H26" s="407"/>
-      <c r="I26" s="407"/>
-      <c r="J26" s="408"/>
+      <c r="C26" s="411"/>
+      <c r="D26" s="411"/>
+      <c r="E26" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F26" s="412"/>
+      <c r="G26" s="324">
+        <f>Данные!B16</f>
+        <v>32</v>
+      </c>
+      <c r="H26" s="413"/>
+      <c r="I26" s="413"/>
+      <c r="J26" s="413"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="324">
+      <c r="A27" s="393">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B27" s="405" t="s">
+      <c r="B27" s="411" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="405"/>
-      <c r="D27" s="405"/>
-      <c r="E27" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="406"/>
-      <c r="G27" s="325">
-        <v>30</v>
-      </c>
-      <c r="H27" s="407"/>
-      <c r="I27" s="407"/>
-      <c r="J27" s="408"/>
+      <c r="C27" s="411"/>
+      <c r="D27" s="411"/>
+      <c r="E27" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F27" s="412"/>
+      <c r="G27" s="324">
+        <f>Данные!B17</f>
+        <v>32</v>
+      </c>
+      <c r="H27" s="413"/>
+      <c r="I27" s="413"/>
+      <c r="J27" s="413"/>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="324">
+      <c r="A28" s="393">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="411" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="405"/>
-      <c r="D28" s="405"/>
-      <c r="E28" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="406"/>
-      <c r="G28" s="325">
-        <v>50</v>
-      </c>
-      <c r="H28" s="407"/>
-      <c r="I28" s="407"/>
-      <c r="J28" s="408"/>
+      <c r="C28" s="411"/>
+      <c r="D28" s="411"/>
+      <c r="E28" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F28" s="412"/>
+      <c r="G28" s="324">
+        <f>Данные!B18</f>
+        <v>60</v>
+      </c>
+      <c r="H28" s="413"/>
+      <c r="I28" s="413"/>
+      <c r="J28" s="413"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="324">
+      <c r="A29" s="393">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B29" s="405" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="405"/>
-      <c r="D29" s="405"/>
-      <c r="E29" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="406"/>
-      <c r="G29" s="325">
-        <v>70</v>
-      </c>
-      <c r="H29" s="407"/>
-      <c r="I29" s="407"/>
-      <c r="J29" s="408"/>
+      <c r="B29" s="411" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="411"/>
+      <c r="D29" s="411"/>
+      <c r="E29" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F29" s="412"/>
+      <c r="G29" s="324">
+        <f>Данные!B19</f>
+        <v>60</v>
+      </c>
+      <c r="H29" s="413"/>
+      <c r="I29" s="413"/>
+      <c r="J29" s="413"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="324">
+      <c r="A30" s="393">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B30" s="405" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="405"/>
-      <c r="D30" s="405"/>
-      <c r="E30" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="406"/>
-      <c r="G30" s="325">
-        <v>40</v>
-      </c>
-      <c r="H30" s="407"/>
-      <c r="I30" s="407"/>
-      <c r="J30" s="408"/>
+      <c r="B30" s="411" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="411"/>
+      <c r="D30" s="411"/>
+      <c r="E30" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F30" s="412"/>
+      <c r="G30" s="324">
+        <f>Данные!B20</f>
+        <v>50</v>
+      </c>
+      <c r="H30" s="413"/>
+      <c r="I30" s="413"/>
+      <c r="J30" s="413"/>
     </row>
     <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="324">
+      <c r="A31" s="393">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B31" s="405" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="405"/>
-      <c r="D31" s="405"/>
-      <c r="E31" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="406"/>
-      <c r="G31" s="325">
-        <v>22</v>
-      </c>
-      <c r="H31" s="407"/>
-      <c r="I31" s="407"/>
-      <c r="J31" s="408"/>
+      <c r="B31" s="411" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="411"/>
+      <c r="D31" s="411"/>
+      <c r="E31" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F31" s="412"/>
+      <c r="G31" s="324">
+        <f>Данные!B21</f>
+        <v>20</v>
+      </c>
+      <c r="H31" s="413"/>
+      <c r="I31" s="413"/>
+      <c r="J31" s="413"/>
     </row>
     <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="324">
+      <c r="A32" s="393">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B32" s="405" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="405"/>
-      <c r="D32" s="405"/>
-      <c r="E32" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="406"/>
-      <c r="G32" s="325">
-        <v>22</v>
-      </c>
-      <c r="H32" s="407"/>
-      <c r="I32" s="407"/>
-      <c r="J32" s="408"/>
+      <c r="B32" s="411" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="411"/>
+      <c r="D32" s="411"/>
+      <c r="E32" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F32" s="412"/>
+      <c r="G32" s="324">
+        <f>Данные!B23</f>
+        <v>18</v>
+      </c>
+      <c r="H32" s="413"/>
+      <c r="I32" s="413"/>
+      <c r="J32" s="413"/>
     </row>
     <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="324">
+      <c r="A33" s="393">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B33" s="405" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="405"/>
-      <c r="D33" s="405"/>
-      <c r="E33" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="406"/>
-      <c r="G33" s="325">
-        <v>22</v>
-      </c>
-      <c r="H33" s="407"/>
-      <c r="I33" s="407"/>
-      <c r="J33" s="408"/>
+      <c r="B33" s="411" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="411"/>
+      <c r="D33" s="411"/>
+      <c r="E33" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="412"/>
+      <c r="G33" s="324" t="str">
+        <f>Данные!B26</f>
+        <v>нет</v>
+      </c>
+      <c r="H33" s="413"/>
+      <c r="I33" s="413"/>
+      <c r="J33" s="413"/>
     </row>
     <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="324">
+      <c r="A34" s="393">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B34" s="405" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="405"/>
-      <c r="D34" s="405"/>
-      <c r="E34" s="406" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="406"/>
-      <c r="G34" s="325" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="407"/>
-      <c r="I34" s="407"/>
-      <c r="J34" s="408"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="326">
+      <c r="B34" s="411" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="411"/>
+      <c r="D34" s="411"/>
+      <c r="E34" s="412" t="str">
+        <f>Данные!$A$29</f>
+        <v>ХХI-В-28-2-350</v>
+      </c>
+      <c r="F34" s="412"/>
+      <c r="G34" s="324">
+        <f>Данные!B22</f>
+        <v>24</v>
+      </c>
+      <c r="H34" s="413"/>
+      <c r="I34" s="413"/>
+      <c r="J34" s="413"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="393">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B35" s="417" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="417"/>
-      <c r="D35" s="417"/>
-      <c r="E35" s="406" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="406"/>
-      <c r="G35" s="327">
-        <v>10</v>
-      </c>
-      <c r="H35" s="418"/>
-      <c r="I35" s="418"/>
-      <c r="J35" s="419"/>
+      <c r="B35" s="411" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="411"/>
+      <c r="D35" s="411"/>
+      <c r="E35" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="412"/>
+      <c r="G35" s="324" t="str">
+        <f>Данные!B24</f>
+        <v>нет</v>
+      </c>
+      <c r="H35" s="413"/>
+      <c r="I35" s="413"/>
+      <c r="J35" s="413"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="313"/>
@@ -8706,7 +9334,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="313" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="313"/>
       <c r="C37" s="313"/>
@@ -8722,21 +9350,21 @@
       <c r="A38" s="313"/>
       <c r="B38" s="313"/>
       <c r="C38" s="313"/>
-      <c r="D38" s="330"/>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
+      <c r="D38" s="327"/>
+      <c r="E38" s="327"/>
+      <c r="F38" s="327"/>
+      <c r="G38" s="327"/>
+      <c r="H38" s="327"/>
       <c r="I38" s="313"/>
       <c r="J38" s="314"/>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="313"/>
       <c r="B39" s="320" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="313" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" s="313" t="s">
-        <v>80</v>
       </c>
       <c r="D39" s="313"/>
       <c r="E39" s="313"/>
@@ -8768,7 +9396,7 @@
       <c r="H41" s="321"/>
       <c r="I41" s="313" t="str">
         <f>I17</f>
-        <v>И.В. Шуманский</v>
+        <v>Я.В. Карчмит</v>
       </c>
       <c r="J41" s="313"/>
     </row>
@@ -8793,7 +9421,7 @@
       <c r="H43" s="311"/>
       <c r="I43" s="313" t="str">
         <f>I18</f>
-        <v>А.Д. Гавриленко;</v>
+        <v>Д.Е. Серков</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -8813,12 +9441,40 @@
       <c r="H45" s="321"/>
       <c r="I45" s="313" t="str">
         <f>I19</f>
-        <v>В.П. Гринь</v>
+        <v>А.Д. Гавриленко</v>
       </c>
       <c r="J45" s="313"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="H35:J35"/>
@@ -8835,29 +9491,431 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="9.109375" style="309"/>
+    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="309"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G2" s="325" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+    </row>
+    <row r="3" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G3" s="325" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+    </row>
+    <row r="4" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G4" s="325" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+    </row>
+    <row r="5" spans="1:11" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G6" s="377"/>
+      <c r="H6" s="325" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
+    </row>
+    <row r="7" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
+    </row>
+    <row r="8" spans="1:11" s="376" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="G8" s="312" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="325" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="326"/>
+      <c r="J8" s="326"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="415" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="415"/>
+      <c r="C11" s="415"/>
+      <c r="D11" s="415"/>
+      <c r="E11" s="415"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="415"/>
+      <c r="H11" s="415"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="414" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="414"/>
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
+      <c r="F12" s="414"/>
+      <c r="G12" s="414"/>
+      <c r="H12" s="414"/>
+      <c r="I12" s="414"/>
+      <c r="J12" s="414"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="416" t="str">
+        <f>Данные!A2</f>
+        <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
+      </c>
+      <c r="B13" s="415"/>
+      <c r="C13" s="415"/>
+      <c r="D13" s="415"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="415"/>
+      <c r="H13" s="415"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="313" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="313"/>
+      <c r="C15" s="313"/>
+      <c r="D15" s="313"/>
+      <c r="E15" s="313"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="314"/>
+      <c r="H15" s="315">
+        <f>Данные!D11</f>
+        <v>43734</v>
+      </c>
+      <c r="I15" s="313"/>
+      <c r="J15" s="314"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="313" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="313"/>
+      <c r="C16" s="313"/>
+      <c r="D16" s="313"/>
+      <c r="E16" s="313"/>
+      <c r="F16" s="313"/>
+      <c r="G16" s="313"/>
+      <c r="H16" s="313"/>
+      <c r="I16" s="313"/>
+      <c r="J16" s="314"/>
+    </row>
+    <row r="17" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="328" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="329" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="329"/>
+      <c r="D17" s="330" t="str">
+        <f>Данные!F11</f>
+        <v>начальник производства</v>
+      </c>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="H17" s="329"/>
+      <c r="I17" s="329" t="str">
+        <f>Данные!J11</f>
+        <v>Я.В. Карчмит</v>
+      </c>
+      <c r="J17" s="314"/>
+    </row>
+    <row r="18" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="328" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="329" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="329"/>
+      <c r="D18" s="330" t="str">
+        <f>Данные!F12</f>
+        <v>начальник производственного участка</v>
+      </c>
+      <c r="E18" s="329"/>
+      <c r="F18" s="329"/>
+      <c r="G18" s="329"/>
+      <c r="I18" s="329" t="str">
+        <f>Данные!J12</f>
+        <v>Д.Е. Серков</v>
+      </c>
+      <c r="J18" s="314"/>
+    </row>
+    <row r="19" spans="1:10" s="378" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="329"/>
+      <c r="B19" s="329"/>
+      <c r="C19" s="329"/>
+      <c r="D19" s="329" t="str">
+        <f>Данные!F13</f>
+        <v>начальник участка ремонта форм</v>
+      </c>
+      <c r="E19" s="329"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="329"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329" t="str">
+        <f>Данные!J13</f>
+        <v>А.Д. Гавриленко</v>
+      </c>
+      <c r="J19" s="314"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="313" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="313"/>
+      <c r="C20" s="313"/>
+      <c r="D20" s="313"/>
+      <c r="E20" s="313"/>
+      <c r="F20" s="313"/>
+      <c r="G20" s="313"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="315">
+        <f>H15</f>
+        <v>43734</v>
+      </c>
+      <c r="J20" s="314"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="313" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="313"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="313"/>
+      <c r="E21" s="313"/>
+      <c r="F21" s="313"/>
+      <c r="G21" s="313"/>
+      <c r="H21" s="313"/>
+      <c r="I21" s="313"/>
+      <c r="J21" s="314"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="417" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="417" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="417"/>
+      <c r="G22" s="418" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="417" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="417"/>
+      <c r="J22" s="417"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="417"/>
+      <c r="B23" s="417"/>
+      <c r="C23" s="417"/>
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="418"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="417"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="393">
+        <v>1</v>
+      </c>
+      <c r="B24" s="411" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="411"/>
+      <c r="D24" s="411"/>
+      <c r="E24" s="412"/>
+      <c r="F24" s="412"/>
+      <c r="G24" s="324">
+        <v>120</v>
+      </c>
+      <c r="H24" s="413"/>
+      <c r="I24" s="413"/>
+      <c r="J24" s="413"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="313"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="313"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="313"/>
+      <c r="G25" s="313"/>
+      <c r="H25" s="313"/>
+      <c r="I25" s="313"/>
+      <c r="J25" s="314"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="313" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="313"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="313"/>
+      <c r="F26" s="313"/>
+      <c r="G26" s="313"/>
+      <c r="H26" s="313"/>
+      <c r="I26" s="313"/>
+      <c r="J26" s="314"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="313"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="327"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="327"/>
+      <c r="H27" s="327"/>
+      <c r="I27" s="313"/>
+      <c r="J27" s="314"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="313"/>
+      <c r="B28" s="320" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="313" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="313"/>
+      <c r="E28" s="313"/>
+      <c r="F28" s="313"/>
+      <c r="G28" s="313"/>
+      <c r="H28" s="313"/>
+      <c r="I28" s="313"/>
+      <c r="J28" s="314"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="313"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="313"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="313"/>
+      <c r="H29" s="313"/>
+      <c r="I29" s="313"/>
+      <c r="J29" s="314"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="313"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="313"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="313" t="str">
+        <f>I17</f>
+        <v>Я.В. Карчмит</v>
+      </c>
+      <c r="J30" s="313"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="313"/>
+      <c r="B31" s="313"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="313"/>
+      <c r="I31" s="313"/>
+      <c r="J31" s="313"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="313"/>
+      <c r="B32" s="313"/>
+      <c r="C32" s="313"/>
+      <c r="D32" s="313"/>
+      <c r="E32" s="313"/>
+      <c r="G32" s="311"/>
+      <c r="H32" s="311"/>
+      <c r="I32" s="313" t="str">
+        <f>I18</f>
+        <v>Д.Е. Серков</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="310"/>
+      <c r="B33" s="310"/>
+      <c r="C33" s="310"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="310"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="310"/>
+      <c r="B34" s="310"/>
+      <c r="C34" s="310"/>
+      <c r="D34" s="310"/>
+      <c r="E34" s="310"/>
+      <c r="G34" s="321"/>
+      <c r="H34" s="321"/>
+      <c r="I34" s="313" t="str">
+        <f>I19</f>
+        <v>А.Д. Гавриленко</v>
+      </c>
+      <c r="J34" s="313"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="E22:F23"/>
@@ -8870,7 +9928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K44"/>
   <sheetViews>
@@ -8886,85 +9944,85 @@
     <col min="9" max="16384" width="9.109375" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E2" s="310" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E3" s="310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E4" s="310" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E3" s="310" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E4" s="310" t="s">
+    <row r="5" spans="1:10" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E6" s="377"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="310" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="376" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="E8" s="312" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="379" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="310" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="379" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="E8" s="312" t="s">
-        <v>62</v>
       </c>
       <c r="F8" s="312"/>
       <c r="G8" s="310" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="423" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="423"/>
-      <c r="C11" s="423"/>
-      <c r="D11" s="423"/>
-      <c r="E11" s="423"/>
-      <c r="F11" s="423"/>
-      <c r="G11" s="423"/>
-      <c r="H11" s="423"/>
-      <c r="I11" s="423"/>
-      <c r="J11" s="423"/>
+      <c r="A11" s="420" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="420"/>
+      <c r="C11" s="420"/>
+      <c r="D11" s="420"/>
+      <c r="E11" s="420"/>
+      <c r="F11" s="420"/>
+      <c r="G11" s="420"/>
+      <c r="H11" s="420"/>
+      <c r="I11" s="420"/>
+      <c r="J11" s="420"/>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="424" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="424"/>
-      <c r="C12" s="424"/>
-      <c r="D12" s="424"/>
-      <c r="E12" s="424"/>
-      <c r="F12" s="424"/>
-      <c r="G12" s="424"/>
-      <c r="H12" s="424"/>
-      <c r="I12" s="424"/>
-      <c r="J12" s="424"/>
+      <c r="A12" s="421" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="421"/>
+      <c r="C12" s="421"/>
+      <c r="D12" s="421"/>
+      <c r="E12" s="421"/>
+      <c r="F12" s="421"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="421"/>
+      <c r="I12" s="421"/>
+      <c r="J12" s="421"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="424" t="str">
+      <c r="A13" s="421" t="str">
         <f>'Акт приемки'!A13:J13</f>
-        <v>Х-КПНн-500-34 (ALIVARIA 1864)</v>
-      </c>
-      <c r="B13" s="424"/>
-      <c r="C13" s="424"/>
-      <c r="D13" s="424"/>
-      <c r="E13" s="424"/>
-      <c r="F13" s="424"/>
-      <c r="G13" s="424"/>
-      <c r="H13" s="424"/>
-      <c r="I13" s="424"/>
-      <c r="J13" s="424"/>
+        <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
+      </c>
+      <c r="B13" s="421"/>
+      <c r="C13" s="421"/>
+      <c r="D13" s="421"/>
+      <c r="E13" s="421"/>
+      <c r="F13" s="421"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="421"/>
+      <c r="I13" s="421"/>
+      <c r="J13" s="421"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="313"/>
       <c r="C15" s="313"/>
@@ -8974,14 +10032,14 @@
       <c r="G15" s="314"/>
       <c r="H15" s="315">
         <f>'Акт приемки'!H15</f>
-        <v>43420</v>
+        <v>43734</v>
       </c>
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
     </row>
-    <row r="16" spans="1:10" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="332" t="s">
-        <v>109</v>
+    <row r="16" spans="1:10" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="329" t="s">
+        <v>100</v>
       </c>
       <c r="B16" s="313"/>
       <c r="C16" s="313"/>
@@ -8993,60 +10051,60 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:11" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="331" t="s">
+    <row r="17" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="328" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="332" t="s">
+      <c r="C17" s="329"/>
+      <c r="D17" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="H17" s="329"/>
+      <c r="I17" s="329" t="str">
+        <f>'Акт приемки'!I17</f>
+        <v>Я.В. Карчмит</v>
+      </c>
+      <c r="J17" s="314"/>
+    </row>
+    <row r="18" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="328" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="333" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
-      <c r="H17" s="332"/>
-      <c r="I17" s="332" t="str">
-        <f>'Акт приемки'!I17</f>
-        <v>И.В. Шуманский</v>
-      </c>
-      <c r="J17" s="314"/>
-    </row>
-    <row r="18" spans="1:11" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="331" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="332" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="333" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
-      <c r="G18" s="332"/>
-      <c r="I18" s="332" t="str">
+      <c r="C18" s="329"/>
+      <c r="D18" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="329"/>
+      <c r="F18" s="329"/>
+      <c r="G18" s="329"/>
+      <c r="I18" s="329" t="str">
         <f>'Акт приемки'!I18</f>
-        <v>А.Д. Гавриленко;</v>
+        <v>Д.Е. Серков</v>
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:11" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="332"/>
-      <c r="B19" s="332"/>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="332"/>
-      <c r="I19" s="332" t="str">
+    <row r="19" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="329"/>
+      <c r="B19" s="329"/>
+      <c r="C19" s="329"/>
+      <c r="D19" s="329" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="329"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="329"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329" t="str">
         <f>'Акт приемки'!I19</f>
-        <v>В.П. Гринь</v>
+        <v>А.Д. Гавриленко</v>
       </c>
       <c r="J19" s="314"/>
     </row>
@@ -9063,83 +10121,83 @@
       <c r="J20" s="318"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="422" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="422"/>
-      <c r="C21" s="422"/>
-      <c r="D21" s="422"/>
-      <c r="E21" s="422"/>
-      <c r="F21" s="422"/>
-      <c r="G21" s="422"/>
-      <c r="H21" s="422"/>
-      <c r="I21" s="422"/>
-      <c r="J21" s="422"/>
+      <c r="A21" s="419" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="419"/>
+      <c r="C21" s="419"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="419"/>
       <c r="K21" s="319"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="422"/>
-      <c r="B22" s="422"/>
-      <c r="C22" s="422"/>
-      <c r="D22" s="422"/>
-      <c r="E22" s="422"/>
-      <c r="F22" s="422"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="422"/>
-      <c r="I22" s="422"/>
-      <c r="J22" s="422"/>
+      <c r="A22" s="419"/>
+      <c r="B22" s="419"/>
+      <c r="C22" s="419"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
       <c r="K22" s="319"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="422"/>
-      <c r="B23" s="422"/>
-      <c r="C23" s="422"/>
-      <c r="D23" s="422"/>
-      <c r="E23" s="422"/>
-      <c r="F23" s="422"/>
-      <c r="G23" s="422"/>
-      <c r="H23" s="422"/>
-      <c r="I23" s="422"/>
-      <c r="J23" s="422"/>
+      <c r="A23" s="419"/>
+      <c r="B23" s="419"/>
+      <c r="C23" s="419"/>
+      <c r="D23" s="419"/>
+      <c r="E23" s="419"/>
+      <c r="F23" s="419"/>
+      <c r="G23" s="419"/>
+      <c r="H23" s="419"/>
+      <c r="I23" s="419"/>
+      <c r="J23" s="419"/>
       <c r="K23" s="319"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="422"/>
-      <c r="B24" s="422"/>
-      <c r="C24" s="422"/>
-      <c r="D24" s="422"/>
-      <c r="E24" s="422"/>
-      <c r="F24" s="422"/>
-      <c r="G24" s="422"/>
-      <c r="H24" s="422"/>
-      <c r="I24" s="422"/>
-      <c r="J24" s="422"/>
+      <c r="A24" s="419"/>
+      <c r="B24" s="419"/>
+      <c r="C24" s="419"/>
+      <c r="D24" s="419"/>
+      <c r="E24" s="419"/>
+      <c r="F24" s="419"/>
+      <c r="G24" s="419"/>
+      <c r="H24" s="419"/>
+      <c r="I24" s="419"/>
+      <c r="J24" s="419"/>
       <c r="K24" s="319"/>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="422"/>
-      <c r="B25" s="422"/>
-      <c r="C25" s="422"/>
-      <c r="D25" s="422"/>
-      <c r="E25" s="422"/>
-      <c r="F25" s="422"/>
-      <c r="G25" s="422"/>
-      <c r="H25" s="422"/>
-      <c r="I25" s="422"/>
-      <c r="J25" s="422"/>
+      <c r="A25" s="419"/>
+      <c r="B25" s="419"/>
+      <c r="C25" s="419"/>
+      <c r="D25" s="419"/>
+      <c r="E25" s="419"/>
+      <c r="F25" s="419"/>
+      <c r="G25" s="419"/>
+      <c r="H25" s="419"/>
+      <c r="I25" s="419"/>
+      <c r="J25" s="419"/>
       <c r="K25" s="319"/>
     </row>
     <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="422"/>
-      <c r="B26" s="422"/>
-      <c r="C26" s="422"/>
-      <c r="D26" s="422"/>
-      <c r="E26" s="422"/>
-      <c r="F26" s="422"/>
-      <c r="G26" s="422"/>
-      <c r="H26" s="422"/>
-      <c r="I26" s="422"/>
-      <c r="J26" s="422"/>
+      <c r="A26" s="419"/>
+      <c r="B26" s="419"/>
+      <c r="C26" s="419"/>
+      <c r="D26" s="419"/>
+      <c r="E26" s="419"/>
+      <c r="F26" s="419"/>
+      <c r="G26" s="419"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="419"/>
+      <c r="J26" s="419"/>
       <c r="K26" s="319"/>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -9215,7 +10273,7 @@
       <c r="I32" s="313"/>
       <c r="J32" s="314"/>
     </row>
-    <row r="33" spans="1:11" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="313"/>
       <c r="B33" s="313"/>
       <c r="C33" s="313"/>
@@ -9224,11 +10282,11 @@
       <c r="H33" s="321"/>
       <c r="I33" s="316" t="str">
         <f>I17</f>
-        <v>И.В. Шуманский</v>
+        <v>Я.В. Карчмит</v>
       </c>
       <c r="J33" s="313"/>
     </row>
-    <row r="34" spans="1:11" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="313"/>
       <c r="B34" s="313"/>
       <c r="C34" s="313"/>
@@ -9238,32 +10296,32 @@
       <c r="I34" s="313"/>
       <c r="J34" s="313"/>
     </row>
-    <row r="35" spans="1:11" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="313"/>
       <c r="B35" s="313"/>
       <c r="C35" s="313"/>
       <c r="D35" s="313"/>
-      <c r="G35" s="380"/>
-      <c r="H35" s="380"/>
+      <c r="G35" s="377"/>
+      <c r="H35" s="377"/>
       <c r="I35" s="316" t="str">
         <f>I18</f>
-        <v>А.Д. Гавриленко;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="379" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>Д.Е. Серков</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="376" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="310"/>
       <c r="B36" s="310"/>
       <c r="C36" s="310"/>
       <c r="D36" s="310"/>
     </row>
-    <row r="37" spans="1:11" s="379" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G37" s="379" t="s">
-        <v>68</v>
+    <row r="37" spans="1:11" s="376" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G37" s="376" t="s">
+        <v>67</v>
       </c>
       <c r="H37" s="313"/>
       <c r="I37" s="313" t="str">
         <f>I19</f>
-        <v>В.П. Гринь</v>
+        <v>А.Д. Гавриленко</v>
       </c>
       <c r="J37" s="313"/>
       <c r="K37" s="313"/>
@@ -9342,7 +10400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
@@ -9386,47 +10444,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="425"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="434" t="s">
+      <c r="B2" s="440"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="449" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="435"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="436"/>
-      <c r="I2" s="441" t="s">
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="456" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="442"/>
-      <c r="K2" s="445">
+      <c r="J2" s="457"/>
+      <c r="K2" s="460">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="446"/>
+      <c r="L2" s="461"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="437"/>
-      <c r="Q2" s="437"/>
+      <c r="P2" s="452"/>
+      <c r="Q2" s="452"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="430"/>
-      <c r="E3" s="438" t="s">
+      <c r="B3" s="443"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="453" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="439"/>
-      <c r="G3" s="439"/>
-      <c r="H3" s="440"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="447"/>
-      <c r="L3" s="448"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
+      <c r="H3" s="455"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
+      <c r="K3" s="462"/>
+      <c r="L3" s="463"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9437,9 +10495,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="431"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="433"/>
+      <c r="B4" s="446"/>
+      <c r="C4" s="447"/>
+      <c r="D4" s="448"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9458,22 +10516,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="453"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="426"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="454"/>
-      <c r="J5" s="455"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="427"/>
+      <c r="J5" s="428"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9484,22 +10542,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="456"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="429"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="454"/>
-      <c r="J6" s="455"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="427"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="404"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9510,27 +10568,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="460"/>
-      <c r="D7" s="402">
+      <c r="C7" s="433"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="459" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="432" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="463"/>
-      <c r="K7" s="390">
+      <c r="J7" s="436"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9584,13 +10642,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="336"/>
-      <c r="M9" s="336"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="337"/>
+      <c r="L9" s="333"/>
+      <c r="M9" s="333"/>
+      <c r="N9" s="333"/>
+      <c r="O9" s="333"/>
+      <c r="P9" s="333"/>
+      <c r="Q9" s="333"/>
+      <c r="R9" s="334"/>
       <c r="S9" s="199"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9617,13 +10675,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="338"/>
-      <c r="M10" s="338"/>
-      <c r="N10" s="338"/>
-      <c r="O10" s="338"/>
-      <c r="P10" s="338"/>
-      <c r="Q10" s="338"/>
-      <c r="R10" s="339"/>
+      <c r="L10" s="335"/>
+      <c r="M10" s="335"/>
+      <c r="N10" s="335"/>
+      <c r="O10" s="335"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="335"/>
+      <c r="R10" s="336"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9631,7 +10689,7 @@
       <c r="B11" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="334">
+      <c r="C11" s="331">
         <v>136.19999999999999</v>
       </c>
       <c r="D11" s="98">
@@ -9650,13 +10708,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="340"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="340"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340"/>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="341"/>
+      <c r="L11" s="337"/>
+      <c r="M11" s="337"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="337"/>
+      <c r="P11" s="337"/>
+      <c r="Q11" s="337"/>
+      <c r="R11" s="338"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9683,13 +10741,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="340"/>
-      <c r="M12" s="340"/>
-      <c r="N12" s="340"/>
-      <c r="O12" s="340"/>
-      <c r="P12" s="340"/>
-      <c r="Q12" s="340"/>
-      <c r="R12" s="341"/>
+      <c r="L12" s="337"/>
+      <c r="M12" s="337"/>
+      <c r="N12" s="337"/>
+      <c r="O12" s="337"/>
+      <c r="P12" s="337"/>
+      <c r="Q12" s="337"/>
+      <c r="R12" s="338"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9697,7 +10755,7 @@
       <c r="B13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="334">
+      <c r="C13" s="331">
         <v>5</v>
       </c>
       <c r="D13" s="98">
@@ -9716,13 +10774,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="340"/>
-      <c r="M13" s="340"/>
-      <c r="N13" s="340"/>
-      <c r="O13" s="340"/>
-      <c r="P13" s="340"/>
-      <c r="Q13" s="340"/>
-      <c r="R13" s="341"/>
+      <c r="L13" s="337"/>
+      <c r="M13" s="337"/>
+      <c r="N13" s="337"/>
+      <c r="O13" s="337"/>
+      <c r="P13" s="337"/>
+      <c r="Q13" s="337"/>
+      <c r="R13" s="338"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9730,7 +10788,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="334">
+      <c r="C14" s="331">
         <v>10</v>
       </c>
       <c r="D14" s="98">
@@ -9749,13 +10807,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="340"/>
-      <c r="M14" s="340"/>
-      <c r="N14" s="340"/>
-      <c r="O14" s="340"/>
-      <c r="P14" s="340"/>
-      <c r="Q14" s="340"/>
-      <c r="R14" s="341"/>
+      <c r="L14" s="337"/>
+      <c r="M14" s="337"/>
+      <c r="N14" s="337"/>
+      <c r="O14" s="337"/>
+      <c r="P14" s="337"/>
+      <c r="Q14" s="337"/>
+      <c r="R14" s="338"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9763,7 +10821,7 @@
       <c r="B15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="334">
+      <c r="C15" s="331">
         <v>157</v>
       </c>
       <c r="D15" s="98">
@@ -9782,13 +10840,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="340"/>
-      <c r="M15" s="340"/>
-      <c r="N15" s="340"/>
-      <c r="O15" s="340"/>
-      <c r="P15" s="340"/>
-      <c r="Q15" s="340"/>
-      <c r="R15" s="341"/>
+      <c r="L15" s="337"/>
+      <c r="M15" s="337"/>
+      <c r="N15" s="337"/>
+      <c r="O15" s="337"/>
+      <c r="P15" s="337"/>
+      <c r="Q15" s="337"/>
+      <c r="R15" s="338"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9815,13 +10873,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="340"/>
-      <c r="M16" s="340"/>
-      <c r="N16" s="340"/>
-      <c r="O16" s="340"/>
-      <c r="P16" s="340"/>
-      <c r="Q16" s="340"/>
-      <c r="R16" s="341"/>
+      <c r="L16" s="337"/>
+      <c r="M16" s="337"/>
+      <c r="N16" s="337"/>
+      <c r="O16" s="337"/>
+      <c r="P16" s="337"/>
+      <c r="Q16" s="337"/>
+      <c r="R16" s="338"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9829,7 +10887,7 @@
       <c r="B17" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="334">
+      <c r="C17" s="331">
         <v>136.19999999999999</v>
       </c>
       <c r="D17" s="98">
@@ -9848,13 +10906,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="340"/>
-      <c r="M17" s="340"/>
-      <c r="N17" s="340"/>
-      <c r="O17" s="340"/>
-      <c r="P17" s="340"/>
-      <c r="Q17" s="340"/>
-      <c r="R17" s="341"/>
+      <c r="L17" s="337"/>
+      <c r="M17" s="337"/>
+      <c r="N17" s="337"/>
+      <c r="O17" s="337"/>
+      <c r="P17" s="337"/>
+      <c r="Q17" s="337"/>
+      <c r="R17" s="338"/>
       <c r="S17" s="86"/>
     </row>
     <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -9881,13 +10939,13 @@
       <c r="I18" s="106"/>
       <c r="J18" s="106"/>
       <c r="K18" s="106"/>
-      <c r="L18" s="342"/>
-      <c r="M18" s="342"/>
-      <c r="N18" s="342"/>
-      <c r="O18" s="342"/>
-      <c r="P18" s="342"/>
-      <c r="Q18" s="342"/>
-      <c r="R18" s="343"/>
+      <c r="L18" s="339"/>
+      <c r="M18" s="339"/>
+      <c r="N18" s="339"/>
+      <c r="O18" s="339"/>
+      <c r="P18" s="339"/>
+      <c r="Q18" s="339"/>
+      <c r="R18" s="340"/>
       <c r="S18" s="86"/>
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9914,13 +10972,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="342"/>
-      <c r="M19" s="342"/>
-      <c r="N19" s="342"/>
-      <c r="O19" s="342"/>
-      <c r="P19" s="342"/>
-      <c r="Q19" s="342"/>
-      <c r="R19" s="343"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="339"/>
+      <c r="O19" s="339"/>
+      <c r="P19" s="339"/>
+      <c r="Q19" s="339"/>
+      <c r="R19" s="340"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9929,7 +10987,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D20" s="106">
         <v>0.05</v>
@@ -9947,21 +11005,21 @@
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
-      <c r="L20" s="342"/>
-      <c r="M20" s="342"/>
-      <c r="N20" s="342"/>
-      <c r="O20" s="342"/>
-      <c r="P20" s="342"/>
-      <c r="Q20" s="342"/>
-      <c r="R20" s="343"/>
+      <c r="L20" s="339"/>
+      <c r="M20" s="339"/>
+      <c r="N20" s="339"/>
+      <c r="O20" s="339"/>
+      <c r="P20" s="339"/>
+      <c r="Q20" s="339"/>
+      <c r="R20" s="340"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="335">
+      <c r="C21" s="332">
         <v>0.2</v>
       </c>
       <c r="D21" s="106">
@@ -9980,21 +11038,21 @@
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
       <c r="K21" s="106"/>
-      <c r="L21" s="342"/>
-      <c r="M21" s="342"/>
-      <c r="N21" s="342"/>
-      <c r="O21" s="342"/>
-      <c r="P21" s="342"/>
-      <c r="Q21" s="342"/>
-      <c r="R21" s="343"/>
+      <c r="L21" s="339"/>
+      <c r="M21" s="339"/>
+      <c r="N21" s="339"/>
+      <c r="O21" s="339"/>
+      <c r="P21" s="339"/>
+      <c r="Q21" s="339"/>
+      <c r="R21" s="340"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="335">
+      <c r="C22" s="332">
         <v>0.2</v>
       </c>
       <c r="D22" s="106">
@@ -10013,23 +11071,23 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
       <c r="K22" s="106"/>
-      <c r="L22" s="342"/>
-      <c r="M22" s="342"/>
-      <c r="N22" s="342"/>
-      <c r="O22" s="342"/>
-      <c r="P22" s="342"/>
-      <c r="Q22" s="342"/>
-      <c r="R22" s="343"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="339"/>
+      <c r="N22" s="339"/>
+      <c r="O22" s="339"/>
+      <c r="P22" s="339"/>
+      <c r="Q22" s="339"/>
+      <c r="R22" s="340"/>
       <c r="S22" s="86"/>
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="464" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="465"/>
-      <c r="D23" s="465"/>
-      <c r="E23" s="466"/>
+      <c r="B23" s="437" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="438"/>
+      <c r="D23" s="438"/>
+      <c r="E23" s="439"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -10040,23 +11098,23 @@
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
       <c r="K23" s="106"/>
-      <c r="L23" s="342"/>
-      <c r="M23" s="342"/>
-      <c r="N23" s="342"/>
-      <c r="O23" s="342"/>
-      <c r="P23" s="342"/>
-      <c r="Q23" s="342"/>
-      <c r="R23" s="343"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="339"/>
+      <c r="N23" s="339"/>
+      <c r="O23" s="339"/>
+      <c r="P23" s="339"/>
+      <c r="Q23" s="339"/>
+      <c r="R23" s="340"/>
       <c r="S23" s="86"/>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="449" t="s">
+      <c r="B24" s="422" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="450"/>
-      <c r="D24" s="450"/>
-      <c r="E24" s="451"/>
+      <c r="C24" s="423"/>
+      <c r="D24" s="423"/>
+      <c r="E24" s="424"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -10067,13 +11125,13 @@
       <c r="I24" s="110"/>
       <c r="J24" s="110"/>
       <c r="K24" s="110"/>
-      <c r="L24" s="344"/>
-      <c r="M24" s="344"/>
-      <c r="N24" s="344"/>
-      <c r="O24" s="344"/>
-      <c r="P24" s="344"/>
-      <c r="Q24" s="344"/>
-      <c r="R24" s="345"/>
+      <c r="L24" s="341"/>
+      <c r="M24" s="341"/>
+      <c r="N24" s="341"/>
+      <c r="O24" s="341"/>
+      <c r="P24" s="341"/>
+      <c r="Q24" s="341"/>
+      <c r="R24" s="342"/>
       <c r="S24" s="86"/>
     </row>
     <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10100,6 +11158,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -10114,12 +11178,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -10138,7 +11196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -10182,50 +11240,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="467">
+      <c r="B2" s="471">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="476" t="s">
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="480" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="482" t="s">
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="483"/>
-      <c r="K2" s="486">
+      <c r="J2" s="487"/>
+      <c r="K2" s="490">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="487"/>
+      <c r="L2" s="491"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="437"/>
-      <c r="Q2" s="437"/>
+      <c r="P2" s="452"/>
+      <c r="Q2" s="452"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="479" t="s">
+      <c r="B3" s="474"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="483" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="481"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="489"/>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="493"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10236,9 +11294,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="475"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="479"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -10257,22 +11315,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="490"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="464"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="466"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10283,22 +11341,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="464"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="492"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10309,27 +11367,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="494"/>
-      <c r="D7" s="402">
+      <c r="C7" s="468"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="495" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="390">
+      <c r="J7" s="468"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -10383,13 +11441,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="336"/>
-      <c r="M9" s="336"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="337"/>
+      <c r="L9" s="333"/>
+      <c r="M9" s="333"/>
+      <c r="N9" s="333"/>
+      <c r="O9" s="333"/>
+      <c r="P9" s="333"/>
+      <c r="Q9" s="333"/>
+      <c r="R9" s="334"/>
       <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -10416,13 +11474,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="338"/>
-      <c r="M10" s="338"/>
-      <c r="N10" s="338"/>
-      <c r="O10" s="338"/>
-      <c r="P10" s="338"/>
-      <c r="Q10" s="338"/>
-      <c r="R10" s="339"/>
+      <c r="L10" s="335"/>
+      <c r="M10" s="335"/>
+      <c r="N10" s="335"/>
+      <c r="O10" s="335"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="335"/>
+      <c r="R10" s="336"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10430,7 +11488,7 @@
       <c r="B11" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="334">
+      <c r="C11" s="331">
         <v>25.5</v>
       </c>
       <c r="D11" s="98">
@@ -10449,13 +11507,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="340"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="340"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340"/>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="341"/>
+      <c r="L11" s="337"/>
+      <c r="M11" s="337"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="337"/>
+      <c r="P11" s="337"/>
+      <c r="Q11" s="337"/>
+      <c r="R11" s="338"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10463,7 +11521,7 @@
       <c r="B12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="334">
+      <c r="C12" s="331">
         <v>20</v>
       </c>
       <c r="D12" s="98">
@@ -10482,13 +11540,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="340"/>
-      <c r="M12" s="340"/>
-      <c r="N12" s="340"/>
-      <c r="O12" s="340"/>
-      <c r="P12" s="340"/>
-      <c r="Q12" s="340"/>
-      <c r="R12" s="341"/>
+      <c r="L12" s="337"/>
+      <c r="M12" s="337"/>
+      <c r="N12" s="337"/>
+      <c r="O12" s="337"/>
+      <c r="P12" s="337"/>
+      <c r="Q12" s="337"/>
+      <c r="R12" s="338"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10496,7 +11554,7 @@
       <c r="B13" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="334">
+      <c r="C13" s="331">
         <v>50.4</v>
       </c>
       <c r="D13" s="98">
@@ -10515,48 +11573,48 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="340"/>
-      <c r="M13" s="340"/>
-      <c r="N13" s="340"/>
-      <c r="O13" s="340"/>
-      <c r="P13" s="340"/>
-      <c r="Q13" s="340"/>
-      <c r="R13" s="341"/>
+      <c r="L13" s="337"/>
+      <c r="M13" s="337"/>
+      <c r="N13" s="337"/>
+      <c r="O13" s="337"/>
+      <c r="P13" s="337"/>
+      <c r="Q13" s="337"/>
+      <c r="R13" s="338"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="464" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="465"/>
-      <c r="D14" s="465"/>
-      <c r="E14" s="465"/>
-      <c r="F14" s="496"/>
+      <c r="B14" s="437" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="438"/>
+      <c r="D14" s="438"/>
+      <c r="E14" s="438"/>
+      <c r="F14" s="470"/>
       <c r="G14" s="56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H14" s="107"/>
       <c r="I14" s="106"/>
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
-      <c r="L14" s="342"/>
-      <c r="M14" s="342"/>
-      <c r="N14" s="342"/>
-      <c r="O14" s="342"/>
-      <c r="P14" s="342"/>
-      <c r="Q14" s="342"/>
-      <c r="R14" s="343"/>
+      <c r="L14" s="339"/>
+      <c r="M14" s="339"/>
+      <c r="N14" s="339"/>
+      <c r="O14" s="339"/>
+      <c r="P14" s="339"/>
+      <c r="Q14" s="339"/>
+      <c r="R14" s="340"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="449" t="s">
+      <c r="B15" s="422" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="450"/>
-      <c r="D15" s="450"/>
-      <c r="E15" s="451"/>
+      <c r="C15" s="423"/>
+      <c r="D15" s="423"/>
+      <c r="E15" s="424"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -10567,13 +11625,13 @@
       <c r="I15" s="110"/>
       <c r="J15" s="110"/>
       <c r="K15" s="110"/>
-      <c r="L15" s="344"/>
-      <c r="M15" s="344"/>
-      <c r="N15" s="344"/>
-      <c r="O15" s="344"/>
-      <c r="P15" s="344"/>
-      <c r="Q15" s="344"/>
-      <c r="R15" s="345"/>
+      <c r="L15" s="341"/>
+      <c r="M15" s="341"/>
+      <c r="N15" s="341"/>
+      <c r="O15" s="341"/>
+      <c r="P15" s="341"/>
+      <c r="Q15" s="341"/>
+      <c r="R15" s="342"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10607,6 +11665,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -10621,12 +11685,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -10653,7 +11711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
@@ -10697,47 +11755,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="425"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="434" t="s">
+      <c r="B2" s="440"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="449" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="435"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="436"/>
-      <c r="I2" s="441" t="s">
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="456" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="442"/>
-      <c r="K2" s="445">
+      <c r="J2" s="457"/>
+      <c r="K2" s="460">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="446"/>
+      <c r="L2" s="461"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="437"/>
-      <c r="Q2" s="437"/>
+      <c r="P2" s="452"/>
+      <c r="Q2" s="452"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="430"/>
-      <c r="E3" s="438" t="s">
+      <c r="B3" s="443"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="453" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="439"/>
-      <c r="G3" s="439"/>
-      <c r="H3" s="440"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="447"/>
-      <c r="L3" s="448"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
+      <c r="H3" s="455"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
+      <c r="K3" s="462"/>
+      <c r="L3" s="463"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10748,9 +11806,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="431"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="433"/>
+      <c r="B4" s="446"/>
+      <c r="C4" s="447"/>
+      <c r="D4" s="448"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10769,22 +11827,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="453"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="426"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="454"/>
-      <c r="J5" s="455"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="427"/>
+      <c r="J5" s="428"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10795,22 +11853,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="456"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="429"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="454"/>
-      <c r="J6" s="455"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="427"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="404"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10821,27 +11879,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="460"/>
-      <c r="D7" s="402">
+      <c r="C7" s="433"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="459" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="432" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="463"/>
-      <c r="K7" s="390">
+      <c r="J7" s="436"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10895,13 +11953,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="336"/>
-      <c r="M9" s="336"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="337"/>
+      <c r="L9" s="333"/>
+      <c r="M9" s="333"/>
+      <c r="N9" s="333"/>
+      <c r="O9" s="333"/>
+      <c r="P9" s="333"/>
+      <c r="Q9" s="333"/>
+      <c r="R9" s="334"/>
       <c r="S9" s="90"/>
       <c r="V9" s="91"/>
       <c r="W9" s="91"/>
@@ -10931,13 +11989,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="338"/>
-      <c r="M10" s="338"/>
-      <c r="N10" s="338"/>
-      <c r="O10" s="338"/>
-      <c r="P10" s="338"/>
-      <c r="Q10" s="338"/>
-      <c r="R10" s="339"/>
+      <c r="L10" s="335"/>
+      <c r="M10" s="335"/>
+      <c r="N10" s="335"/>
+      <c r="O10" s="335"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="335"/>
+      <c r="R10" s="336"/>
       <c r="S10" s="86"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -10948,7 +12006,7 @@
       <c r="B11" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="334">
+      <c r="C11" s="331">
         <v>5</v>
       </c>
       <c r="D11" s="98">
@@ -10967,13 +12025,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="340"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="340"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340"/>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="341"/>
+      <c r="L11" s="337"/>
+      <c r="M11" s="337"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="337"/>
+      <c r="P11" s="337"/>
+      <c r="Q11" s="337"/>
+      <c r="R11" s="338"/>
       <c r="S11" s="86"/>
       <c r="V11" s="91"/>
       <c r="W11" s="101"/>
@@ -10984,7 +12042,7 @@
       <c r="B12" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="334">
+      <c r="C12" s="331">
         <v>10</v>
       </c>
       <c r="D12" s="98">
@@ -11003,13 +12061,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="340"/>
-      <c r="M12" s="340"/>
-      <c r="N12" s="340"/>
-      <c r="O12" s="340"/>
-      <c r="P12" s="340"/>
-      <c r="Q12" s="340"/>
-      <c r="R12" s="341"/>
+      <c r="L12" s="337"/>
+      <c r="M12" s="337"/>
+      <c r="N12" s="337"/>
+      <c r="O12" s="337"/>
+      <c r="P12" s="337"/>
+      <c r="Q12" s="337"/>
+      <c r="R12" s="338"/>
       <c r="S12" s="86"/>
       <c r="V12" s="91"/>
       <c r="W12" s="102"/>
@@ -11020,7 +12078,7 @@
       <c r="B13" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="334">
+      <c r="C13" s="331">
         <v>109.3</v>
       </c>
       <c r="D13" s="98">
@@ -11039,13 +12097,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="340"/>
-      <c r="M13" s="340"/>
-      <c r="N13" s="340"/>
-      <c r="O13" s="340"/>
-      <c r="P13" s="340"/>
-      <c r="Q13" s="340"/>
-      <c r="R13" s="341"/>
+      <c r="L13" s="337"/>
+      <c r="M13" s="337"/>
+      <c r="N13" s="337"/>
+      <c r="O13" s="337"/>
+      <c r="P13" s="337"/>
+      <c r="Q13" s="337"/>
+      <c r="R13" s="338"/>
       <c r="S13" s="86"/>
       <c r="V13" s="91"/>
       <c r="W13" s="102"/>
@@ -11075,13 +12133,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="340"/>
-      <c r="M14" s="340"/>
-      <c r="N14" s="340"/>
-      <c r="O14" s="340"/>
-      <c r="P14" s="340"/>
-      <c r="Q14" s="340"/>
-      <c r="R14" s="341"/>
+      <c r="L14" s="337"/>
+      <c r="M14" s="337"/>
+      <c r="N14" s="337"/>
+      <c r="O14" s="337"/>
+      <c r="P14" s="337"/>
+      <c r="Q14" s="337"/>
+      <c r="R14" s="338"/>
       <c r="S14" s="86"/>
       <c r="V14" s="91"/>
       <c r="W14" s="102"/>
@@ -11092,7 +12150,7 @@
       <c r="B15" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="334">
+      <c r="C15" s="331">
         <v>136.19999999999999</v>
       </c>
       <c r="D15" s="98">
@@ -11111,13 +12169,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="340"/>
-      <c r="M15" s="340"/>
-      <c r="N15" s="340"/>
-      <c r="O15" s="340"/>
-      <c r="P15" s="340"/>
-      <c r="Q15" s="340"/>
-      <c r="R15" s="341"/>
+      <c r="L15" s="337"/>
+      <c r="M15" s="337"/>
+      <c r="N15" s="337"/>
+      <c r="O15" s="337"/>
+      <c r="P15" s="337"/>
+      <c r="Q15" s="337"/>
+      <c r="R15" s="338"/>
       <c r="S15" s="86"/>
       <c r="V15" s="91"/>
       <c r="W15" s="101"/>
@@ -11128,7 +12186,7 @@
       <c r="B16" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="334">
+      <c r="C16" s="331">
         <v>75.400000000000006</v>
       </c>
       <c r="D16" s="98">
@@ -11147,13 +12205,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="340"/>
-      <c r="M16" s="340"/>
-      <c r="N16" s="340"/>
-      <c r="O16" s="340"/>
-      <c r="P16" s="340"/>
-      <c r="Q16" s="340"/>
-      <c r="R16" s="341"/>
+      <c r="L16" s="337"/>
+      <c r="M16" s="337"/>
+      <c r="N16" s="337"/>
+      <c r="O16" s="337"/>
+      <c r="P16" s="337"/>
+      <c r="Q16" s="337"/>
+      <c r="R16" s="338"/>
       <c r="S16" s="86"/>
       <c r="V16" s="91"/>
       <c r="W16" s="102"/>
@@ -11183,13 +12241,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="340"/>
-      <c r="M17" s="340"/>
-      <c r="N17" s="340"/>
-      <c r="O17" s="340"/>
-      <c r="P17" s="340"/>
-      <c r="Q17" s="340"/>
-      <c r="R17" s="341"/>
+      <c r="L17" s="337"/>
+      <c r="M17" s="337"/>
+      <c r="N17" s="337"/>
+      <c r="O17" s="337"/>
+      <c r="P17" s="337"/>
+      <c r="Q17" s="337"/>
+      <c r="R17" s="338"/>
       <c r="S17" s="86"/>
       <c r="V17" s="91"/>
       <c r="W17" s="101"/>
@@ -11219,13 +12277,13 @@
       <c r="I18" s="98"/>
       <c r="J18" s="98"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="340"/>
-      <c r="M18" s="340"/>
-      <c r="N18" s="340"/>
-      <c r="O18" s="340"/>
-      <c r="P18" s="340"/>
-      <c r="Q18" s="340"/>
-      <c r="R18" s="341"/>
+      <c r="L18" s="337"/>
+      <c r="M18" s="337"/>
+      <c r="N18" s="337"/>
+      <c r="O18" s="337"/>
+      <c r="P18" s="337"/>
+      <c r="Q18" s="337"/>
+      <c r="R18" s="338"/>
       <c r="S18" s="86"/>
       <c r="V18" s="91"/>
       <c r="W18" s="101"/>
@@ -11236,7 +12294,7 @@
       <c r="B19" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="373">
+      <c r="C19" s="370">
         <v>67</v>
       </c>
       <c r="D19" s="106">
@@ -11255,13 +12313,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="342"/>
-      <c r="M19" s="342"/>
-      <c r="N19" s="342"/>
-      <c r="O19" s="342"/>
-      <c r="P19" s="342"/>
-      <c r="Q19" s="342"/>
-      <c r="R19" s="343"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="339"/>
+      <c r="O19" s="339"/>
+      <c r="P19" s="339"/>
+      <c r="Q19" s="339"/>
+      <c r="R19" s="340"/>
       <c r="S19" s="86"/>
       <c r="V19" s="91"/>
       <c r="W19" s="101"/>
@@ -11272,7 +12330,7 @@
       <c r="B20" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="335">
+      <c r="C20" s="332">
         <v>0.2</v>
       </c>
       <c r="D20" s="106">
@@ -11291,13 +12349,13 @@
       <c r="I20" s="110"/>
       <c r="J20" s="110"/>
       <c r="K20" s="110"/>
-      <c r="L20" s="344"/>
-      <c r="M20" s="344"/>
-      <c r="N20" s="344"/>
-      <c r="O20" s="344"/>
-      <c r="P20" s="344"/>
-      <c r="Q20" s="344"/>
-      <c r="R20" s="345"/>
+      <c r="L20" s="341"/>
+      <c r="M20" s="341"/>
+      <c r="N20" s="341"/>
+      <c r="O20" s="341"/>
+      <c r="P20" s="341"/>
+      <c r="Q20" s="341"/>
+      <c r="R20" s="342"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11324,7 +12382,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -11342,6 +12399,7 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -11362,7 +12420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -11406,47 +12464,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="425"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="427"/>
-      <c r="E2" s="434" t="s">
+      <c r="B2" s="440"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="449" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="435"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="436"/>
-      <c r="I2" s="441" t="s">
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="456" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="442"/>
-      <c r="K2" s="445">
+      <c r="J2" s="457"/>
+      <c r="K2" s="460">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="446"/>
+      <c r="L2" s="461"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
+      <c r="P2" s="494"/>
+      <c r="Q2" s="494"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="430"/>
-      <c r="E3" s="438" t="s">
+      <c r="B3" s="443"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="453" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="439"/>
-      <c r="G3" s="439"/>
-      <c r="H3" s="440"/>
-      <c r="I3" s="443"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="447"/>
-      <c r="L3" s="448"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
+      <c r="H3" s="455"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="459"/>
+      <c r="K3" s="462"/>
+      <c r="L3" s="463"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -11457,9 +12515,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="431"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="433"/>
+      <c r="B4" s="446"/>
+      <c r="C4" s="447"/>
+      <c r="D4" s="448"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11478,22 +12536,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="453"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="426"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="454"/>
-      <c r="J5" s="455"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="427"/>
+      <c r="J5" s="428"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -11504,22 +12562,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="456"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="429"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="454"/>
-      <c r="J6" s="455"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="427"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="404"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -11530,27 +12588,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="460"/>
-      <c r="D7" s="402">
+      <c r="C7" s="433"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="459" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="432" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="463"/>
-      <c r="K7" s="390">
+      <c r="J7" s="436"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -11604,13 +12662,13 @@
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="346"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="346"/>
-      <c r="Q9" s="346"/>
-      <c r="R9" s="347"/>
+      <c r="L9" s="343"/>
+      <c r="M9" s="343"/>
+      <c r="N9" s="343"/>
+      <c r="O9" s="343"/>
+      <c r="P9" s="343"/>
+      <c r="Q9" s="343"/>
+      <c r="R9" s="344"/>
       <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -11637,13 +12695,13 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="348"/>
-      <c r="M10" s="348"/>
-      <c r="N10" s="348"/>
-      <c r="O10" s="348"/>
-      <c r="P10" s="348"/>
-      <c r="Q10" s="348"/>
-      <c r="R10" s="349"/>
+      <c r="L10" s="345"/>
+      <c r="M10" s="345"/>
+      <c r="N10" s="345"/>
+      <c r="O10" s="345"/>
+      <c r="P10" s="345"/>
+      <c r="Q10" s="345"/>
+      <c r="R10" s="346"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11670,13 +12728,13 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="348"/>
-      <c r="M11" s="348"/>
-      <c r="N11" s="348"/>
-      <c r="O11" s="348"/>
-      <c r="P11" s="348"/>
-      <c r="Q11" s="348"/>
-      <c r="R11" s="349"/>
+      <c r="L11" s="345"/>
+      <c r="M11" s="345"/>
+      <c r="N11" s="345"/>
+      <c r="O11" s="345"/>
+      <c r="P11" s="345"/>
+      <c r="Q11" s="345"/>
+      <c r="R11" s="346"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11684,7 +12742,7 @@
       <c r="B12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="352">
+      <c r="C12" s="349">
         <v>62</v>
       </c>
       <c r="D12" s="44">
@@ -11703,13 +12761,13 @@
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="348"/>
-      <c r="M12" s="348"/>
-      <c r="N12" s="348"/>
-      <c r="O12" s="348"/>
-      <c r="P12" s="348"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="349"/>
+      <c r="L12" s="345"/>
+      <c r="M12" s="345"/>
+      <c r="N12" s="345"/>
+      <c r="O12" s="345"/>
+      <c r="P12" s="345"/>
+      <c r="Q12" s="345"/>
+      <c r="R12" s="346"/>
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11717,7 +12775,7 @@
       <c r="B13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="352">
+      <c r="C13" s="349">
         <v>50</v>
       </c>
       <c r="D13" s="44">
@@ -11736,13 +12794,13 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="348"/>
-      <c r="M13" s="348"/>
-      <c r="N13" s="348"/>
-      <c r="O13" s="348"/>
-      <c r="P13" s="348"/>
-      <c r="Q13" s="348"/>
-      <c r="R13" s="349"/>
+      <c r="L13" s="345"/>
+      <c r="M13" s="345"/>
+      <c r="N13" s="345"/>
+      <c r="O13" s="345"/>
+      <c r="P13" s="345"/>
+      <c r="Q13" s="345"/>
+      <c r="R13" s="346"/>
       <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11750,7 +12808,7 @@
       <c r="B14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="352">
+      <c r="C14" s="349">
         <v>62</v>
       </c>
       <c r="D14" s="44">
@@ -11769,13 +12827,13 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
-      <c r="L14" s="348"/>
-      <c r="M14" s="348"/>
-      <c r="N14" s="348"/>
-      <c r="O14" s="348"/>
-      <c r="P14" s="348"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="349"/>
+      <c r="L14" s="345"/>
+      <c r="M14" s="345"/>
+      <c r="N14" s="345"/>
+      <c r="O14" s="345"/>
+      <c r="P14" s="345"/>
+      <c r="Q14" s="345"/>
+      <c r="R14" s="346"/>
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11783,7 +12841,7 @@
       <c r="B15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="353">
+      <c r="C15" s="350">
         <v>12.7</v>
       </c>
       <c r="D15" s="49">
@@ -11802,13 +12860,13 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
-      <c r="L15" s="350"/>
-      <c r="M15" s="350"/>
-      <c r="N15" s="350"/>
-      <c r="O15" s="350"/>
-      <c r="P15" s="350"/>
-      <c r="Q15" s="350"/>
-      <c r="R15" s="351"/>
+      <c r="L15" s="347"/>
+      <c r="M15" s="347"/>
+      <c r="N15" s="347"/>
+      <c r="O15" s="347"/>
+      <c r="P15" s="347"/>
+      <c r="Q15" s="347"/>
+      <c r="R15" s="348"/>
       <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11835,6 +12893,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11842,17 +12911,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -11874,7 +12932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11921,60 +12979,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="467"/>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="476" t="s">
+      <c r="B2" s="471"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="480" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="482" t="s">
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="486" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="483"/>
-      <c r="K2" s="486">
+      <c r="J2" s="487"/>
+      <c r="K2" s="490">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="487"/>
-      <c r="M2" s="498"/>
-      <c r="N2" s="499"/>
-      <c r="O2" s="499"/>
-      <c r="P2" s="499"/>
-      <c r="Q2" s="499"/>
-      <c r="R2" s="500"/>
+      <c r="L2" s="491"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="496"/>
+      <c r="P2" s="496"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="497"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="479" t="s">
+      <c r="B3" s="474"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="483" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="481"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="489"/>
-      <c r="M3" s="501"/>
-      <c r="N3" s="502"/>
-      <c r="O3" s="502"/>
-      <c r="P3" s="502"/>
-      <c r="Q3" s="502"/>
-      <c r="R3" s="503"/>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="498"/>
+      <c r="N3" s="499"/>
+      <c r="O3" s="499"/>
+      <c r="P3" s="499"/>
+      <c r="Q3" s="499"/>
+      <c r="R3" s="500"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="475"/>
+      <c r="B4" s="477"/>
+      <c r="C4" s="478"/>
+      <c r="D4" s="479"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11983,95 +13041,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="501"/>
-      <c r="N4" s="502"/>
-      <c r="O4" s="502"/>
-      <c r="P4" s="502"/>
-      <c r="Q4" s="502"/>
-      <c r="R4" s="503"/>
+      <c r="M4" s="498"/>
+      <c r="N4" s="499"/>
+      <c r="O4" s="499"/>
+      <c r="P4" s="499"/>
+      <c r="Q4" s="499"/>
+      <c r="R4" s="500"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="490"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="464"/>
+      <c r="D5" s="403" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="501"/>
-      <c r="N5" s="502"/>
-      <c r="O5" s="502"/>
-      <c r="P5" s="502"/>
-      <c r="Q5" s="502"/>
-      <c r="R5" s="503"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="405"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="466"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="405"/>
+      <c r="M5" s="498"/>
+      <c r="N5" s="499"/>
+      <c r="O5" s="499"/>
+      <c r="P5" s="499"/>
+      <c r="Q5" s="499"/>
+      <c r="R5" s="500"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="425" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="464"/>
+      <c r="D6" s="397" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="492"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="401"/>
-      <c r="M6" s="501"/>
-      <c r="N6" s="502"/>
-      <c r="O6" s="502"/>
-      <c r="P6" s="502"/>
-      <c r="Q6" s="502"/>
-      <c r="R6" s="503"/>
+      <c r="E6" s="430"/>
+      <c r="F6" s="430"/>
+      <c r="G6" s="430"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="465"/>
+      <c r="J6" s="466"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="405"/>
+      <c r="M6" s="498"/>
+      <c r="N6" s="499"/>
+      <c r="O6" s="499"/>
+      <c r="P6" s="499"/>
+      <c r="Q6" s="499"/>
+      <c r="R6" s="500"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="432" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="494"/>
-      <c r="D7" s="402">
+      <c r="C7" s="468"/>
+      <c r="D7" s="406">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="495" t="s">
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="435"/>
+      <c r="I7" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="390">
+      <c r="J7" s="468"/>
+      <c r="K7" s="394">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
-      <c r="M7" s="501"/>
-      <c r="N7" s="502"/>
-      <c r="O7" s="502"/>
-      <c r="P7" s="502"/>
-      <c r="Q7" s="502"/>
-      <c r="R7" s="503"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="498"/>
+      <c r="N7" s="499"/>
+      <c r="O7" s="499"/>
+      <c r="P7" s="499"/>
+      <c r="Q7" s="499"/>
+      <c r="R7" s="500"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12133,7 +13191,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="354">
+      <c r="C10" s="351">
         <v>75.400000000000006</v>
       </c>
       <c r="D10" s="93">
@@ -12232,7 +13290,7 @@
       <c r="B13" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="355">
+      <c r="C13" s="352">
         <v>38.1</v>
       </c>
       <c r="D13" s="133">
@@ -12265,7 +13323,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="334">
+      <c r="C14" s="331">
         <v>45.3</v>
       </c>
       <c r="D14" s="98">
@@ -12397,7 +13455,7 @@
       <c r="B18" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="334">
+      <c r="C18" s="331">
         <v>9.52</v>
       </c>
       <c r="D18" s="98">
@@ -12493,12 +13551,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="449" t="s">
+      <c r="B21" s="422" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="450"/>
-      <c r="D21" s="450"/>
-      <c r="E21" s="451"/>
+      <c r="C21" s="423"/>
+      <c r="D21" s="423"/>
+      <c r="E21" s="424"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -12544,13 +13602,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -12563,6 +13614,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -12579,544 +13637,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63"/>
-    </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="467"/>
-      <c r="C2" s="468"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="476" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="482" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="483"/>
-      <c r="K2" s="486">
-        <f>Данные!B19</f>
-        <v>60</v>
-      </c>
-      <c r="L2" s="487"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="470"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="479" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="481"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="489"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="70"/>
-    </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="473"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="70"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="452" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="490"/>
-      <c r="D5" s="399" t="str">
-        <f>Данные!$A5</f>
-        <v>PCI</v>
-      </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="70"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="452" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="490"/>
-      <c r="D6" s="393" t="str">
-        <f>Данные!$A2</f>
-        <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
-      </c>
-      <c r="E6" s="457"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="457"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="491"/>
-      <c r="J6" s="492"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="401"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="70"/>
-    </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="459" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="494"/>
-      <c r="D7" s="402">
-        <f>Данные!$A8</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="495" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="494"/>
-      <c r="K7" s="390">
-        <f>Данные!$A11</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="391"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="70"/>
-    </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="86"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="256" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="259" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="260" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
-    </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="98">
-        <v>24.7</v>
-      </c>
-      <c r="D10" s="98">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="98">
-        <v>0</v>
-      </c>
-      <c r="F10" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="86"/>
-    </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="98">
-        <v>19.95</v>
-      </c>
-      <c r="D11" s="98">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="98">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="86"/>
-    </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="334">
-        <v>28.6</v>
-      </c>
-      <c r="D12" s="98">
-        <v>0</v>
-      </c>
-      <c r="E12" s="98">
-        <v>-0.03</v>
-      </c>
-      <c r="F12" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="86"/>
-    </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="334">
-        <v>62</v>
-      </c>
-      <c r="D13" s="98">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="98">
-        <v>-0.1</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="86"/>
-    </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="98">
-        <v>12.9</v>
-      </c>
-      <c r="D14" s="98">
-        <v>0</v>
-      </c>
-      <c r="E14" s="98">
-        <v>-0.03</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="86"/>
-    </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="334">
-        <v>9.5</v>
-      </c>
-      <c r="D15" s="98">
-        <v>0</v>
-      </c>
-      <c r="E15" s="98">
-        <v>-0.02</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="86"/>
-    </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="449" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="450"/>
-      <c r="D16" s="450"/>
-      <c r="E16" s="451"/>
-      <c r="F16" s="261" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="200" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="86"/>
-    </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="116"/>
-    </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H10:R15">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="notBetween">
-      <formula>$C10+$D10</formula>
-      <formula>$C10+$E10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;C&amp;R</oddHeader>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2-350 (Аквадив 0.35 л.)/от 26.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2-350 (Аквадив 0.35 л.)/от 26.09.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3011,6 +3011,12 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3052,12 +3058,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3067,6 +3067,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3076,12 +3082,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3090,6 +3090,78 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3141,76 +3213,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3234,75 +3303,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3329,6 +3329,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3339,12 +3342,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3355,9 +3358,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -5617,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5629,25 +5629,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
       <c r="G1" s="380" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="397" t="s">
+      <c r="A2" s="399" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="399"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="401"/>
       <c r="G2" s="379" t="s">
         <v>92</v>
       </c>
@@ -5658,45 +5658,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="401" t="s">
+      <c r="A4" s="403" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="402"/>
-      <c r="C4" s="402"/>
-      <c r="D4" s="402"/>
-      <c r="E4" s="402"/>
+      <c r="B4" s="404"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="403" t="s">
+      <c r="A5" s="405" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="404"/>
-      <c r="C5" s="404"/>
-      <c r="D5" s="404"/>
-      <c r="E5" s="405"/>
+      <c r="B5" s="406"/>
+      <c r="C5" s="406"/>
+      <c r="D5" s="406"/>
+      <c r="E5" s="407"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="396" t="s">
+      <c r="A7" s="398" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="400"/>
-      <c r="C7" s="400"/>
-      <c r="D7" s="400"/>
-      <c r="E7" s="400"/>
+      <c r="B7" s="402"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="406"/>
-      <c r="B8" s="407"/>
-      <c r="C8" s="407"/>
-      <c r="D8" s="407"/>
-      <c r="E8" s="408"/>
+      <c r="A8" s="408"/>
+      <c r="B8" s="409"/>
+      <c r="C8" s="409"/>
+      <c r="D8" s="409"/>
+      <c r="E8" s="410"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="396" t="s">
+      <c r="A10" s="398" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="396"/>
+      <c r="B10" s="398"/>
       <c r="C10" s="381"/>
       <c r="D10" s="390" t="s">
         <v>110</v>
@@ -5707,33 +5707,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="394"/>
-      <c r="B11" s="395"/>
+      <c r="A11" s="396"/>
+      <c r="B11" s="397"/>
       <c r="D11" s="389">
-        <v>43734</v>
-      </c>
-      <c r="F11" s="409" t="s">
+        <v>43748</v>
+      </c>
+      <c r="F11" s="394" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="409"/>
-      <c r="H11" s="409"/>
-      <c r="I11" s="409"/>
-      <c r="J11" s="410" t="s">
+      <c r="G11" s="394"/>
+      <c r="H11" s="394"/>
+      <c r="I11" s="394"/>
+      <c r="J11" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="410"/>
+      <c r="K11" s="395"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="409" t="s">
+      <c r="F12" s="394" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="409"/>
-      <c r="H12" s="409"/>
-      <c r="I12" s="409"/>
-      <c r="J12" s="410" t="s">
+      <c r="G12" s="394"/>
+      <c r="H12" s="394"/>
+      <c r="I12" s="394"/>
+      <c r="J12" s="395" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="410"/>
+      <c r="K12" s="395"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="383" t="s">
@@ -5743,16 +5743,16 @@
         <v>104</v>
       </c>
       <c r="C13" s="382"/>
-      <c r="F13" s="409" t="s">
+      <c r="F13" s="394" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="409"/>
-      <c r="H13" s="409"/>
-      <c r="I13" s="409"/>
-      <c r="J13" s="410" t="s">
+      <c r="G13" s="394"/>
+      <c r="H13" s="394"/>
+      <c r="I13" s="394"/>
+      <c r="J13" s="395" t="s">
         <v>117</v>
       </c>
-      <c r="K13" s="410"/>
+      <c r="K13" s="395"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="385" t="s">
@@ -5870,12 +5870,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -5884,6 +5878,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5933,24 +5933,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="480" t="s">
+      <c r="B2" s="464"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="473" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="486" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="487"/>
-      <c r="K2" s="490">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -5961,19 +5961,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="483" t="s">
+      <c r="B3" s="467"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="476" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="493"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -5984,9 +5984,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="472"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6005,22 +6005,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
-      <c r="K5" s="467"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -6057,27 +6057,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="406">
+      <c r="C7" s="491"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="469" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="468"/>
-      <c r="K7" s="394">
+      <c r="J7" s="491"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -6340,12 +6340,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="422" t="s">
+      <c r="B16" s="446" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="423"/>
-      <c r="D16" s="423"/>
-      <c r="E16" s="424"/>
+      <c r="C16" s="447"/>
+      <c r="D16" s="447"/>
+      <c r="E16" s="448"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -6391,6 +6391,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -6401,15 +6410,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -6477,24 +6477,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="480" t="s">
+      <c r="B2" s="464"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="473" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="486" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="487"/>
-      <c r="K2" s="490">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -6505,19 +6505,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="483" t="s">
+      <c r="B3" s="467"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="476" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="493"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -6528,9 +6528,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="472"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6549,22 +6549,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
-      <c r="K5" s="467"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -6575,22 +6575,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -6601,27 +6601,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="406">
+      <c r="C7" s="491"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="469" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="468"/>
-      <c r="K7" s="394">
+      <c r="J7" s="491"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7007,6 +7007,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7014,17 +7025,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7090,47 +7090,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="480" t="s">
+      <c r="B2" s="464"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="473" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="486" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="487"/>
-      <c r="K2" s="490">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="506"/>
-      <c r="Q2" s="506"/>
+      <c r="P2" s="503"/>
+      <c r="Q2" s="503"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="483" t="s">
+      <c r="B3" s="467"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="476" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="493"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -7141,9 +7141,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="472"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7162,22 +7162,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
-      <c r="K5" s="467"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -7188,22 +7188,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -7214,27 +7214,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="406">
+      <c r="C7" s="491"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="469" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="468"/>
-      <c r="K7" s="394">
+      <c r="J7" s="491"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -7563,12 +7563,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="503" t="s">
+      <c r="B18" s="504" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="504"/>
-      <c r="D18" s="504"/>
-      <c r="E18" s="505"/>
+      <c r="C18" s="505"/>
+      <c r="D18" s="505"/>
+      <c r="E18" s="506"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -7612,14 +7612,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7631,6 +7623,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7713,24 +7713,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="480" t="s">
+      <c r="B2" s="464"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="473" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="486" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="487"/>
-      <c r="K2" s="490" t="str">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483" t="str">
         <f>Данные!B26</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -7741,19 +7741,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="483" t="s">
+      <c r="B3" s="467"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="476" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="493"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -7764,9 +7764,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="472"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7785,22 +7785,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
-      <c r="K5" s="467"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -7811,22 +7811,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -7837,27 +7837,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="406">
+      <c r="C7" s="491"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="469" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="468"/>
-      <c r="K7" s="394">
+      <c r="J7" s="491"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -8238,6 +8238,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8245,17 +8256,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8321,47 +8321,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="480" t="s">
+      <c r="B2" s="464"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="473" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="486" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="487"/>
-      <c r="K2" s="508">
+      <c r="J2" s="480"/>
+      <c r="K2" s="509">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="509"/>
+      <c r="L2" s="510"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="512"/>
-      <c r="Q2" s="512"/>
+      <c r="P2" s="508"/>
+      <c r="Q2" s="508"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="483" t="s">
+      <c r="B3" s="467"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="476" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="510"/>
-      <c r="L3" s="511"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="511"/>
+      <c r="L3" s="512"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -8372,9 +8372,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="472"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8393,22 +8393,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
-      <c r="K5" s="467"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -8419,22 +8419,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -8445,27 +8445,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="406">
+      <c r="C7" s="491"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="469" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="468"/>
-      <c r="K7" s="394">
+      <c r="J7" s="491"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -8738,6 +8738,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -8754,8 +8756,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8784,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8842,54 +8842,54 @@
       <c r="G8" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="325" t="s">
+      <c r="H8" s="377"/>
+      <c r="I8" s="325" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="326"/>
       <c r="J8" s="326"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="415" t="s">
+      <c r="A11" s="417" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="415"/>
-      <c r="C11" s="415"/>
-      <c r="D11" s="415"/>
-      <c r="E11" s="415"/>
-      <c r="F11" s="415"/>
-      <c r="G11" s="415"/>
-      <c r="H11" s="415"/>
-      <c r="I11" s="415"/>
-      <c r="J11" s="415"/>
+      <c r="B11" s="417"/>
+      <c r="C11" s="417"/>
+      <c r="D11" s="417"/>
+      <c r="E11" s="417"/>
+      <c r="F11" s="417"/>
+      <c r="G11" s="417"/>
+      <c r="H11" s="417"/>
+      <c r="I11" s="417"/>
+      <c r="J11" s="417"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="414" t="s">
+      <c r="A12" s="416" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="414"/>
-      <c r="C12" s="414"/>
-      <c r="D12" s="414"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="414"/>
-      <c r="H12" s="414"/>
-      <c r="I12" s="414"/>
-      <c r="J12" s="414"/>
+      <c r="B12" s="416"/>
+      <c r="C12" s="416"/>
+      <c r="D12" s="416"/>
+      <c r="E12" s="416"/>
+      <c r="F12" s="416"/>
+      <c r="G12" s="416"/>
+      <c r="H12" s="416"/>
+      <c r="I12" s="416"/>
+      <c r="J12" s="416"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="416" t="str">
+      <c r="A13" s="418" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="B13" s="415"/>
-      <c r="C13" s="415"/>
-      <c r="D13" s="415"/>
-      <c r="E13" s="415"/>
-      <c r="F13" s="415"/>
-      <c r="G13" s="415"/>
-      <c r="H13" s="415"/>
-      <c r="I13" s="415"/>
-      <c r="J13" s="415"/>
+      <c r="B13" s="417"/>
+      <c r="C13" s="417"/>
+      <c r="D13" s="417"/>
+      <c r="E13" s="417"/>
+      <c r="F13" s="417"/>
+      <c r="G13" s="417"/>
+      <c r="H13" s="417"/>
+      <c r="I13" s="417"/>
+      <c r="J13" s="417"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -8903,7 +8903,7 @@
       <c r="G15" s="314"/>
       <c r="H15" s="315">
         <f>Данные!D11</f>
-        <v>43734</v>
+        <v>43748</v>
       </c>
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
@@ -8995,7 +8995,7 @@
       <c r="H20" s="313"/>
       <c r="I20" s="315">
         <f>H15</f>
-        <v>43734</v>
+        <v>43748</v>
       </c>
       <c r="J20" s="314"/>
     </row>
@@ -9014,38 +9014,38 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="417" t="s">
+      <c r="A22" s="414" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="414" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417" t="s">
+      <c r="C22" s="414"/>
+      <c r="D22" s="414"/>
+      <c r="E22" s="414" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="417"/>
-      <c r="G22" s="418" t="s">
+      <c r="F22" s="414"/>
+      <c r="G22" s="415" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="417" t="s">
+      <c r="H22" s="414" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
+      <c r="I22" s="414"/>
+      <c r="J22" s="414"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="417"/>
-      <c r="B23" s="417"/>
-      <c r="C23" s="417"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="417"/>
-      <c r="G23" s="418"/>
-      <c r="H23" s="417"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
+      <c r="A23" s="414"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="414"/>
+      <c r="D23" s="414"/>
+      <c r="E23" s="414"/>
+      <c r="F23" s="414"/>
+      <c r="G23" s="415"/>
+      <c r="H23" s="414"/>
+      <c r="I23" s="414"/>
+      <c r="J23" s="414"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="393">
@@ -9447,34 +9447,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="H35:J35"/>
@@ -9491,6 +9463,34 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9502,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9560,54 +9560,54 @@
       <c r="G8" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="325" t="s">
+      <c r="H8" s="377"/>
+      <c r="I8" s="325" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="326"/>
       <c r="J8" s="326"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="415" t="s">
+      <c r="A11" s="417" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="415"/>
-      <c r="C11" s="415"/>
-      <c r="D11" s="415"/>
-      <c r="E11" s="415"/>
-      <c r="F11" s="415"/>
-      <c r="G11" s="415"/>
-      <c r="H11" s="415"/>
-      <c r="I11" s="415"/>
-      <c r="J11" s="415"/>
+      <c r="B11" s="417"/>
+      <c r="C11" s="417"/>
+      <c r="D11" s="417"/>
+      <c r="E11" s="417"/>
+      <c r="F11" s="417"/>
+      <c r="G11" s="417"/>
+      <c r="H11" s="417"/>
+      <c r="I11" s="417"/>
+      <c r="J11" s="417"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="414" t="s">
+      <c r="A12" s="416" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="414"/>
-      <c r="C12" s="414"/>
-      <c r="D12" s="414"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="414"/>
-      <c r="H12" s="414"/>
-      <c r="I12" s="414"/>
-      <c r="J12" s="414"/>
+      <c r="B12" s="416"/>
+      <c r="C12" s="416"/>
+      <c r="D12" s="416"/>
+      <c r="E12" s="416"/>
+      <c r="F12" s="416"/>
+      <c r="G12" s="416"/>
+      <c r="H12" s="416"/>
+      <c r="I12" s="416"/>
+      <c r="J12" s="416"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="416" t="str">
+      <c r="A13" s="418" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="B13" s="415"/>
-      <c r="C13" s="415"/>
-      <c r="D13" s="415"/>
-      <c r="E13" s="415"/>
-      <c r="F13" s="415"/>
-      <c r="G13" s="415"/>
-      <c r="H13" s="415"/>
-      <c r="I13" s="415"/>
-      <c r="J13" s="415"/>
+      <c r="B13" s="417"/>
+      <c r="C13" s="417"/>
+      <c r="D13" s="417"/>
+      <c r="E13" s="417"/>
+      <c r="F13" s="417"/>
+      <c r="G13" s="417"/>
+      <c r="H13" s="417"/>
+      <c r="I13" s="417"/>
+      <c r="J13" s="417"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -9621,7 +9621,7 @@
       <c r="G15" s="314"/>
       <c r="H15" s="315">
         <f>Данные!D11</f>
-        <v>43734</v>
+        <v>43748</v>
       </c>
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
@@ -9713,7 +9713,7 @@
       <c r="H20" s="313"/>
       <c r="I20" s="315">
         <f>H15</f>
-        <v>43734</v>
+        <v>43748</v>
       </c>
       <c r="J20" s="314"/>
     </row>
@@ -9732,38 +9732,38 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="417" t="s">
+      <c r="A22" s="414" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="414" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417" t="s">
+      <c r="C22" s="414"/>
+      <c r="D22" s="414"/>
+      <c r="E22" s="414" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="417"/>
-      <c r="G22" s="418" t="s">
+      <c r="F22" s="414"/>
+      <c r="G22" s="415" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="417" t="s">
+      <c r="H22" s="414" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
+      <c r="I22" s="414"/>
+      <c r="J22" s="414"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="417"/>
-      <c r="B23" s="417"/>
-      <c r="C23" s="417"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="417"/>
-      <c r="G23" s="418"/>
-      <c r="H23" s="417"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
+      <c r="A23" s="414"/>
+      <c r="B23" s="414"/>
+      <c r="C23" s="414"/>
+      <c r="D23" s="414"/>
+      <c r="E23" s="414"/>
+      <c r="F23" s="414"/>
+      <c r="G23" s="415"/>
+      <c r="H23" s="414"/>
+      <c r="I23" s="414"/>
+      <c r="J23" s="414"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="393">
@@ -10032,7 +10032,7 @@
       <c r="G15" s="314"/>
       <c r="H15" s="315">
         <f>'Акт приемки'!H15</f>
-        <v>43734</v>
+        <v>43748</v>
       </c>
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
@@ -10444,47 +10444,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="440"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="449" t="s">
+      <c r="B2" s="422"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="451"/>
-      <c r="I2" s="456" t="s">
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="438" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="457"/>
-      <c r="K2" s="460">
+      <c r="J2" s="439"/>
+      <c r="K2" s="442">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="461"/>
+      <c r="L2" s="443"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="452"/>
-      <c r="Q2" s="452"/>
+      <c r="P2" s="434"/>
+      <c r="Q2" s="434"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="443"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="445"/>
-      <c r="E3" s="453" t="s">
+      <c r="B3" s="425"/>
+      <c r="C3" s="426"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="435" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="459"/>
-      <c r="K3" s="462"/>
-      <c r="L3" s="463"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="437"/>
+      <c r="I3" s="440"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="445"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10495,9 +10495,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="446"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="448"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="430"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10516,22 +10516,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="426"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="450"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="428"/>
-      <c r="K5" s="404"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="451"/>
+      <c r="J5" s="452"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10542,22 +10542,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="429"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="453"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="427"/>
-      <c r="J6" s="428"/>
-      <c r="K6" s="404"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="452"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10568,27 +10568,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="433"/>
-      <c r="D7" s="406">
+      <c r="C7" s="457"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="432" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="456" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="436"/>
-      <c r="K7" s="394">
+      <c r="J7" s="460"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11014,7 +11014,7 @@
       <c r="R20" s="340"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="105" t="s">
         <v>41</v>
@@ -11047,7 +11047,7 @@
       <c r="R21" s="340"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="105" t="s">
         <v>42</v>
@@ -11082,12 +11082,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="437" t="s">
+      <c r="B23" s="461" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="438"/>
-      <c r="D23" s="438"/>
-      <c r="E23" s="439"/>
+      <c r="C23" s="462"/>
+      <c r="D23" s="462"/>
+      <c r="E23" s="463"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -11109,12 +11109,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="422" t="s">
+      <c r="B24" s="446" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="423"/>
-      <c r="D24" s="423"/>
-      <c r="E24" s="424"/>
+      <c r="C24" s="447"/>
+      <c r="D24" s="447"/>
+      <c r="E24" s="448"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11158,12 +11158,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11178,6 +11172,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11240,50 +11240,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="471">
+      <c r="B2" s="464">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="480" t="s">
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="473" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="486" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="487"/>
-      <c r="K2" s="490">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="452"/>
-      <c r="Q2" s="452"/>
+      <c r="P2" s="434"/>
+      <c r="Q2" s="434"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="483" t="s">
+      <c r="B3" s="467"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="476" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="493"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11294,9 +11294,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="472"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11315,22 +11315,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
-      <c r="K5" s="467"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11341,22 +11341,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11367,27 +11367,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="406">
+      <c r="C7" s="491"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="469" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="468"/>
-      <c r="K7" s="394">
+      <c r="J7" s="491"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11584,13 +11584,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="437" t="s">
+      <c r="B14" s="461" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="438"/>
-      <c r="D14" s="438"/>
-      <c r="E14" s="438"/>
-      <c r="F14" s="470"/>
+      <c r="C14" s="462"/>
+      <c r="D14" s="462"/>
+      <c r="E14" s="462"/>
+      <c r="F14" s="493"/>
       <c r="G14" s="56" t="s">
         <v>86</v>
       </c>
@@ -11609,12 +11609,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="422" t="s">
+      <c r="B15" s="446" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="423"/>
-      <c r="D15" s="423"/>
-      <c r="E15" s="424"/>
+      <c r="C15" s="447"/>
+      <c r="D15" s="447"/>
+      <c r="E15" s="448"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -11665,12 +11665,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -11685,6 +11679,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -11755,47 +11755,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="440"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="449" t="s">
+      <c r="B2" s="422"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="451"/>
-      <c r="I2" s="456" t="s">
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="438" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="457"/>
-      <c r="K2" s="460">
+      <c r="J2" s="439"/>
+      <c r="K2" s="442">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="461"/>
+      <c r="L2" s="443"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="452"/>
-      <c r="Q2" s="452"/>
+      <c r="P2" s="434"/>
+      <c r="Q2" s="434"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="443"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="445"/>
-      <c r="E3" s="453" t="s">
+      <c r="B3" s="425"/>
+      <c r="C3" s="426"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="435" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="459"/>
-      <c r="K3" s="462"/>
-      <c r="L3" s="463"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="437"/>
+      <c r="I3" s="440"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="445"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11806,9 +11806,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="446"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="448"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="430"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11827,22 +11827,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="426"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="450"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="428"/>
-      <c r="K5" s="404"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="451"/>
+      <c r="J5" s="452"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11853,22 +11853,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="429"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="453"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="427"/>
-      <c r="J6" s="428"/>
-      <c r="K6" s="404"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="452"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11879,27 +11879,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="433"/>
-      <c r="D7" s="406">
+      <c r="C7" s="457"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="432" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="456" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="436"/>
-      <c r="K7" s="394">
+      <c r="J7" s="460"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12382,6 +12382,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -12398,8 +12400,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12464,24 +12464,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="440"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="449" t="s">
+      <c r="B2" s="422"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="451"/>
-      <c r="I2" s="456" t="s">
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="438" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="457"/>
-      <c r="K2" s="460">
+      <c r="J2" s="439"/>
+      <c r="K2" s="442">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="461"/>
+      <c r="L2" s="443"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -12492,19 +12492,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="443"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="445"/>
-      <c r="E3" s="453" t="s">
+      <c r="B3" s="425"/>
+      <c r="C3" s="426"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="435" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="459"/>
-      <c r="K3" s="462"/>
-      <c r="L3" s="463"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="437"/>
+      <c r="I3" s="440"/>
+      <c r="J3" s="441"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="445"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12515,9 +12515,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="446"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="448"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="430"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12536,22 +12536,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="426"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="450"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="428"/>
-      <c r="K5" s="404"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="451"/>
+      <c r="J5" s="452"/>
+      <c r="K5" s="406"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -12562,22 +12562,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="429"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="453"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="427"/>
-      <c r="J6" s="428"/>
-      <c r="K6" s="404"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="452"/>
+      <c r="K6" s="406"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -12588,27 +12588,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="433"/>
-      <c r="D7" s="406">
+      <c r="C7" s="457"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="432" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="456" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="436"/>
-      <c r="K7" s="394">
+      <c r="J7" s="460"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -12893,17 +12893,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12911,6 +12900,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -12979,24 +12979,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="480" t="s">
+      <c r="B2" s="464"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="473" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="486" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="475"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="487"/>
-      <c r="K2" s="490">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="495"/>
       <c r="N2" s="496"/>
       <c r="O2" s="496"/>
@@ -13007,19 +13007,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="483" t="s">
+      <c r="B3" s="467"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="476" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="493"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="498"/>
       <c r="N3" s="499"/>
       <c r="O3" s="499"/>
@@ -13030,9 +13030,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="477"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="479"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="472"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13051,22 +13051,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="425" t="s">
+      <c r="B5" s="449" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="464"/>
-      <c r="D5" s="403" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="405" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="404"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466"/>
-      <c r="K5" s="467"/>
-      <c r="L5" s="405"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="406"/>
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="407"/>
       <c r="M5" s="498"/>
       <c r="N5" s="499"/>
       <c r="O5" s="499"/>
@@ -13077,22 +13077,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="425" t="s">
+      <c r="B6" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="397" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="399" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-2-350 (Аквадив 0.35)</v>
       </c>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="I6" s="465"/>
-      <c r="J6" s="466"/>
-      <c r="K6" s="467"/>
-      <c r="L6" s="405"/>
+      <c r="E6" s="454"/>
+      <c r="F6" s="454"/>
+      <c r="G6" s="454"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="407"/>
       <c r="M6" s="498"/>
       <c r="N6" s="499"/>
       <c r="O6" s="499"/>
@@ -13103,27 +13103,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="432" t="s">
+      <c r="B7" s="456" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="406">
+      <c r="C7" s="491"/>
+      <c r="D7" s="408">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="434"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="469" t="s">
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="459"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="468"/>
-      <c r="K7" s="394">
+      <c r="J7" s="491"/>
+      <c r="K7" s="396">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="395"/>
+      <c r="L7" s="397"/>
       <c r="M7" s="498"/>
       <c r="N7" s="499"/>
       <c r="O7" s="499"/>
@@ -13551,12 +13551,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="422" t="s">
+      <c r="B21" s="446" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="423"/>
-      <c r="D21" s="423"/>
-      <c r="E21" s="424"/>
+      <c r="C21" s="447"/>
+      <c r="D21" s="447"/>
+      <c r="E21" s="448"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -13602,6 +13602,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -13614,13 +13621,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
